--- a/YTM.xlsx
+++ b/YTM.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="8_{77DEBEBE-A469-4118-B291-D52125CB4B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69F7F9CF-9948-422C-ACA8-A3FDAC6C7283}"/>
   <bookViews>
-    <workbookView xWindow="22110" yWindow="8655" windowWidth="12420" windowHeight="11385" xr2:uid="{EDFD6F08-1533-4839-B73B-2BB31B7CD3BC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,14 +55,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="#,##0;[Red]\(#,##0\)"/>
-    <numFmt numFmtId="174" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -113,7 +111,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -123,12 +121,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -150,10 +149,9 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -169,7 +167,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -188,10 +185,8 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;£&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -207,7 +202,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Courier New"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="167" formatCode="#,##0;[Red]\(#,##0\)"/>
@@ -226,7 +220,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Courier New"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -245,7 +238,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Courier New"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -263,7 +255,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Courier New"/>
-        <family val="3"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -295,6 +286,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -363,166 +355,166 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>45322</c:v>
+                  <c:v>45952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45404</c:v>
+                  <c:v>45688</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45688</c:v>
+                  <c:v>45723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45723</c:v>
+                  <c:v>46416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45723</c:v>
+                  <c:v>45404</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45952</c:v>
+                  <c:v>46317</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>52984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52618</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54764</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53358</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52207</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54445</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55722</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51796</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55365</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50746</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56955</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46225</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55083</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50290</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>46052</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>46225</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46317</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46416</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="29">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58462</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46728</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57548</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49741</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49521</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>46590</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>46728</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46728</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="36">
+                  <c:v>47149</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>46783</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="38">
+                  <c:v>61566</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60470</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47094</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45723</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49194</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48791</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48610</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>47048</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>47094</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47149</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="46">
+                  <c:v>59101</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48244</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62753</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48060</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>47413</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="51">
                   <c:v>47778</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="52">
                   <c:v>47824</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>48060</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="53">
                   <c:v>48372</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>48610</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>48791</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>49194</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49521</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>49741</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>50290</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50746</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>51020</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51477</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>51796</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>52207</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>52618</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>52984</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>53358</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>53668</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>53895</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>54445</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>54764</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>55083</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>55365</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>55722</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>56096</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>56179</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>56955</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>57548</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>58462</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>59101</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>60470</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>61566</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>62753</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>63484</c:v>
@@ -537,169 +529,169 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>4.4781871055890585E-2</c:v>
+                  <c:v>4.8893216287053315E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6055591058322819E-2</c:v>
+                  <c:v>4.8194395231087844E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6020483041313627E-2</c:v>
+                  <c:v>4.7363259061430033E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6851116553797242E-2</c:v>
+                  <c:v>4.735286886688659E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.542130900725326E-2</c:v>
+                  <c:v>4.6254640314868048E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2243407405832316E-2</c:v>
+                  <c:v>4.6112558107972296E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4024302217403354E-2</c:v>
+                  <c:v>4.6068838153436056E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7128890280373967E-2</c:v>
+                  <c:v>4.5315874275308685E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.214480546383767E-2</c:v>
+                  <c:v>4.5084614456481348E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2307019781835084E-2</c:v>
+                  <c:v>4.5071822879370033E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3621263392832038E-2</c:v>
+                  <c:v>4.5016127490054722E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4621773724263389E-2</c:v>
+                  <c:v>4.4931172275459258E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1561344459248022E-2</c:v>
+                  <c:v>4.4878225723466177E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1835490980169497E-2</c:v>
+                  <c:v>4.4828987847900625E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7704375593480194E-2</c:v>
+                  <c:v>4.4790430912101088E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1317786459591013E-2</c:v>
+                  <c:v>4.4778221596533822E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0604798951577065E-2</c:v>
+                  <c:v>4.4710171638321021E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1217182646602943E-2</c:v>
+                  <c:v>4.469391666157118E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1555027720023723E-2</c:v>
+                  <c:v>4.4624049016841354E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0066791579777293E-2</c:v>
+                  <c:v>4.4610023067468987E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0278838499083515E-2</c:v>
+                  <c:v>4.4598425947820132E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0122159773599113E-2</c:v>
+                  <c:v>4.4392065928437967E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0518708492663209E-2</c:v>
+                  <c:v>4.4388660342120731E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0302545104865937E-2</c:v>
+                  <c:v>4.4354147761627404E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1319941345364666E-2</c:v>
+                  <c:v>4.4251109861600572E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.1462564208567754E-2</c:v>
+                  <c:v>4.4249168206208993E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.18308274682151E-2</c:v>
+                  <c:v>4.4170573988451652E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.2447512914742469E-2</c:v>
+                  <c:v>4.414075969291037E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.2525132328740105E-2</c:v>
+                  <c:v>4.4136370897471362E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.3371576539014085E-2</c:v>
+                  <c:v>4.4000052690658299E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.3572854295734487E-2</c:v>
+                  <c:v>4.3535203919821616E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.3953203918929387E-2</c:v>
+                  <c:v>4.3490267210944615E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.4069328147510446E-2</c:v>
+                  <c:v>4.3374240201246556E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.4038194795476542E-2</c:v>
+                  <c:v>4.3349734487153027E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.423612481518089E-2</c:v>
+                  <c:v>4.3265237369956466E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.462039106722953E-2</c:v>
+                  <c:v>4.317586990966539E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.4733292949975426E-2</c:v>
+                  <c:v>4.2961783137549399E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4497360253528066E-2</c:v>
+                  <c:v>4.2922135776374361E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.4771812579241788E-2</c:v>
+                  <c:v>4.2917715882242226E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.4681455067633158E-2</c:v>
+                  <c:v>4.2903624148218023E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4455387327087752E-2</c:v>
+                  <c:v>4.287927616412833E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.4683719339124059E-2</c:v>
+                  <c:v>4.2776224800007735E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.3980725990295053E-2</c:v>
+                  <c:v>4.2732091448332434E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.417744933788223E-2</c:v>
+                  <c:v>4.2420279861147513E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.4419609088989863E-2</c:v>
+                  <c:v>4.2294964364998966E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.4134822702703282E-2</c:v>
+                  <c:v>4.2212348568470622E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.4616941680854963E-2</c:v>
+                  <c:v>4.1872412392274391E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.4036208804119008E-2</c:v>
+                  <c:v>4.186724801309203E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.3328923595487304E-2</c:v>
+                  <c:v>4.1647250203451357E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.3510945769464716E-2</c:v>
+                  <c:v>4.1623482308767001E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.177137238720096E-2</c:v>
+                  <c:v>4.1599215381734757E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.2867083637770378E-2</c:v>
+                  <c:v>4.152698148793068E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.2916020616207973E-2</c:v>
+                  <c:v>4.1370508217517761E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.1657833174417534E-2</c:v>
+                  <c:v>4.1310143716150487E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.0780020627796343E-2</c:v>
+                  <c:v>4.0806795434555086E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,6 +881,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -951,171 +944,171 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$57</c:f>
+              <c:f>Sheet2!$C$3:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>45322</c:v>
+                  <c:v>45952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45404</c:v>
+                  <c:v>45688</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>45542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45688</c:v>
+                  <c:v>45723</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45723</c:v>
+                  <c:v>46416</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45723</c:v>
+                  <c:v>45404</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>45907</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45952</c:v>
+                  <c:v>46317</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>52984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52618</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54764</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53358</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52207</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56179</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54445</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55722</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51796</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55365</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50746</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56955</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46225</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55083</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50290</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>46052</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>46225</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46317</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46416</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="29">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58462</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46728</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>57548</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>49741</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49521</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>46590</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>46728</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>46728</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="36">
+                  <c:v>47149</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>46783</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="38">
+                  <c:v>61566</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60470</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47094</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45723</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49194</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48791</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48610</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>47048</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>47094</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47149</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="46">
+                  <c:v>59101</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48244</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62753</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48060</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>47413</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="51">
                   <c:v>47778</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="52">
                   <c:v>47824</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>48060</c:v>
-                </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="53">
                   <c:v>48372</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>48610</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>48791</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>49194</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>49521</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>49741</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>50290</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50746</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>51020</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51477</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>51796</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>52207</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>52618</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>52984</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>53358</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>53668</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>53895</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>54445</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>54764</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>55083</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>55365</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>55722</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>56096</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>56179</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>56955</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>57548</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>58462</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>59101</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>60470</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>61566</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>62753</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>63484</c:v>
@@ -1125,174 +1118,174 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$E$57</c:f>
+              <c:f>Sheet2!$E$3:$E$60</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>4.4781871055890585E-2</c:v>
+                  <c:v>4.8893216287053315E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6055591058322819E-2</c:v>
+                  <c:v>4.8194395231087844E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6020483041313627E-2</c:v>
+                  <c:v>4.7363259061430033E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6851116553797242E-2</c:v>
+                  <c:v>4.735286886688659E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.542130900725326E-2</c:v>
+                  <c:v>4.6254640314868048E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2243407405832316E-2</c:v>
+                  <c:v>4.6112558107972296E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4024302217403354E-2</c:v>
+                  <c:v>4.6068838153436056E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7128890280373967E-2</c:v>
+                  <c:v>4.5315874275308685E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.214480546383767E-2</c:v>
+                  <c:v>4.5084614456481348E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2307019781835084E-2</c:v>
+                  <c:v>4.5071822879370033E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3621263392832038E-2</c:v>
+                  <c:v>4.5016127490054722E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4621773724263389E-2</c:v>
+                  <c:v>4.4931172275459258E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.1561344459248022E-2</c:v>
+                  <c:v>4.4878225723466177E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.1835490980169497E-2</c:v>
+                  <c:v>4.4828987847900625E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7704375593480194E-2</c:v>
+                  <c:v>4.4790430912101088E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.1317786459591013E-2</c:v>
+                  <c:v>4.4778221596533822E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0604798951577065E-2</c:v>
+                  <c:v>4.4710171638321021E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1217182646602943E-2</c:v>
+                  <c:v>4.469391666157118E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1555027720023723E-2</c:v>
+                  <c:v>4.4624049016841354E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.0066791579777293E-2</c:v>
+                  <c:v>4.4610023067468987E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.0278838499083515E-2</c:v>
+                  <c:v>4.4598425947820132E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0122159773599113E-2</c:v>
+                  <c:v>4.4392065928437967E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0518708492663209E-2</c:v>
+                  <c:v>4.4388660342120731E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0302545104865937E-2</c:v>
+                  <c:v>4.4354147761627404E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1319941345364666E-2</c:v>
+                  <c:v>4.4251109861600572E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.1462564208567754E-2</c:v>
+                  <c:v>4.4249168206208993E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.18308274682151E-2</c:v>
+                  <c:v>4.4170573988451652E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.2447512914742469E-2</c:v>
+                  <c:v>4.414075969291037E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.2525132328740105E-2</c:v>
+                  <c:v>4.4136370897471362E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.3371576539014085E-2</c:v>
+                  <c:v>4.4000052690658299E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.3572854295734487E-2</c:v>
+                  <c:v>4.3535203919821616E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.3953203918929387E-2</c:v>
+                  <c:v>4.3490267210944615E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.4069328147510446E-2</c:v>
+                  <c:v>4.3374240201246556E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.4038194795476542E-2</c:v>
+                  <c:v>4.3349734487153027E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.423612481518089E-2</c:v>
+                  <c:v>4.3265237369956466E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.462039106722953E-2</c:v>
+                  <c:v>4.317586990966539E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.4733292949975426E-2</c:v>
+                  <c:v>4.2961783137549399E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4497360253528066E-2</c:v>
+                  <c:v>4.2922135776374361E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.4771812579241788E-2</c:v>
+                  <c:v>4.2917715882242226E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.4681455067633158E-2</c:v>
+                  <c:v>4.2903624148218023E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.4455387327087752E-2</c:v>
+                  <c:v>4.287927616412833E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.4683719339124059E-2</c:v>
+                  <c:v>4.2776224800007735E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.3980725990295053E-2</c:v>
+                  <c:v>4.2732091448332434E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.417744933788223E-2</c:v>
+                  <c:v>4.2420279861147513E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.4419609088989863E-2</c:v>
+                  <c:v>4.2294964364998966E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.4134822702703282E-2</c:v>
+                  <c:v>4.2212348568470622E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.4616941680854963E-2</c:v>
+                  <c:v>4.1872412392274391E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.4036208804119008E-2</c:v>
+                  <c:v>4.186724801309203E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.3328923595487304E-2</c:v>
+                  <c:v>4.1647250203451357E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.3510945769464716E-2</c:v>
+                  <c:v>4.1623482308767001E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.177137238720096E-2</c:v>
+                  <c:v>4.1599215381734757E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.2867083637770378E-2</c:v>
+                  <c:v>4.152698148793068E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.2916020616207973E-2</c:v>
+                  <c:v>4.1370508217517761E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.1657833174417534E-2</c:v>
+                  <c:v>4.1310143716150487E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.0780020627796343E-2</c:v>
+                  <c:v>4.0806795434555086E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,19 +2641,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A7FCEF3-3127-4ECB-B1B8-3768D492880A}" name="Table1" displayName="Table1" ref="B2:F57" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B2:F57" xr:uid="{C36011EB-F1D4-465F-87C3-7B1719E76661}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F57">
-    <sortCondition ref="F2:F57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F57" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B2:F57"/>
+  <sortState ref="B3:F57">
+    <sortCondition descending="1" ref="E2:E57"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D18CA4AD-A29A-4A8C-A2B7-57E2333F8997}" name="Coupon (%)" dataDxfId="0" dataCellStyle="Percent"/>
-    <tableColumn id="2" xr3:uid="{105FE5A4-E27C-470E-BC94-212F5C83170E}" name="Maturity" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{9DC33D2C-81CC-4BAA-9783-F76025AC9E0D}" name="Price" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{E7CFC4D5-5CF6-4E39-9B75-33EF423588F8}" name="YTM" dataDxfId="4">
+    <tableColumn id="1" name="Coupon (%)" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="2" name="Maturity" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="3" name="Price" dataDxfId="2" dataCellStyle="Comma"/>
+    <tableColumn id="4" name="YTM" dataDxfId="4">
       <calculatedColumnFormula>YIELD(TODAY(),C3,B3,D3*1.001,100,2,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6CCA1FCC-8B8D-41EE-AB7F-D03EA99EE5FF}" name="Months left" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="8" name="Months left" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2964,11 +2957,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFFFB45-EC5D-42B4-88D8-D4DC78706868}">
-  <dimension ref="B2:L194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2990,7 +2983,7 @@
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -3002,1109 +2995,1112 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="11">
-        <v>1.25E-3</v>
-      </c>
-      <c r="C3" s="10">
-        <v>45322</v>
-      </c>
-      <c r="D3" s="1">
-        <v>97.09</v>
+      <c r="B3" s="14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>45952</v>
+      </c>
+      <c r="D3" s="13">
+        <v>96.83</v>
       </c>
       <c r="E3" s="3">
         <f ca="1">YIELD(TODAY(),C3,B3,D3*1.001,100,2,1)</f>
-        <v>4.4781871055890585E-2</v>
+        <v>4.8893216287053315E-2</v>
       </c>
       <c r="F3" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>7.9890410958904114</v>
+        <v>28.438356164383563</v>
       </c>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="C4" s="10">
-        <v>45404</v>
-      </c>
-      <c r="D4" s="1">
-        <v>96.8</v>
+      <c r="B4" s="14">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45688</v>
+      </c>
+      <c r="D4" s="13">
+        <v>92.78</v>
       </c>
       <c r="E4" s="3">
         <f ca="1">YIELD(TODAY(),C4,B4,D4*1.001,100,2,1)</f>
-        <v>4.6055591058322819E-2</v>
+        <v>4.8194395231087844E-2</v>
       </c>
       <c r="F4" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>10.684931506849315</v>
+        <v>19.758904109589039</v>
       </c>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <v>2.75E-2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>45542</v>
       </c>
-      <c r="D5" s="1">
-        <v>97.65</v>
+      <c r="D5" s="13">
+        <v>97.53</v>
       </c>
       <c r="E5" s="3">
         <f ca="1">YIELD(TODAY(),C5,B5,D5*1.001,100,2,1)</f>
-        <v>4.6020483041313627E-2</v>
+        <v>4.7363259061430033E-2</v>
       </c>
       <c r="F5" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>15.221917808219178</v>
+        <v>14.958904109589042</v>
       </c>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="11">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="C6" s="10">
-        <v>45688</v>
-      </c>
-      <c r="D6" s="1">
-        <v>92.89</v>
+      <c r="B6" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="9">
+        <v>45723</v>
+      </c>
+      <c r="D6" s="13">
+        <v>100.33</v>
       </c>
       <c r="E6" s="3">
         <f ca="1">YIELD(TODAY(),C6,B6,D6*1.001,100,2,1)</f>
-        <v>4.6851116553797242E-2</v>
+        <v>4.735286886688659E-2</v>
       </c>
       <c r="F6" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>20.021917808219179</v>
+        <v>20.909589041095892</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="C7" s="10">
-        <v>45723</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100.66</v>
+      <c r="B7" s="14">
+        <v>4.1250000000000002E-2</v>
+      </c>
+      <c r="C7" s="9">
+        <v>46416</v>
+      </c>
+      <c r="D7" s="13">
+        <v>98.24</v>
       </c>
       <c r="E7" s="3">
         <f ca="1">YIELD(TODAY(),C7,B7,D7*1.001,100,2,1)</f>
-        <v>4.542130900725326E-2</v>
+        <v>4.6254640314868048E-2</v>
       </c>
       <c r="F7" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>21.172602739726027</v>
+        <v>43.693150684931503</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>45723</v>
-      </c>
-      <c r="D8" s="1">
-        <v>92.8</v>
+      <c r="B8" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="C8" s="9">
+        <v>45404</v>
+      </c>
+      <c r="D8" s="13">
+        <v>96.87</v>
       </c>
       <c r="E8" s="3">
         <f ca="1">YIELD(TODAY(),C8,B8,D8*1.001,100,2,1)</f>
-        <v>4.2243407405832316E-2</v>
+        <v>4.6112558107972296E-2</v>
       </c>
       <c r="F8" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>21.172602739726027</v>
+        <v>10.421917808219177</v>
       </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="11">
+      <c r="B9" s="14">
         <v>0.02</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>45907</v>
       </c>
-      <c r="D9" s="1">
-        <v>94.78</v>
+      <c r="D9" s="13">
+        <v>94.41</v>
       </c>
       <c r="E9" s="3">
         <f ca="1">YIELD(TODAY(),C9,B9,D9*1.001,100,2,1)</f>
-        <v>4.4024302217403354E-2</v>
+        <v>4.6068838153436056E-2</v>
       </c>
       <c r="F9" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>27.221917808219178</v>
+        <v>26.958904109589042</v>
       </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C10" s="10">
-        <v>45952</v>
-      </c>
-      <c r="D10" s="1">
-        <v>97.19</v>
+      <c r="B10" s="14">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="C10" s="9">
+        <v>46317</v>
+      </c>
+      <c r="D10" s="13">
+        <v>87.07</v>
       </c>
       <c r="E10" s="3">
         <f ca="1">YIELD(TODAY(),C10,B10,D10*1.001,100,2,1)</f>
-        <v>4.7128890280373967E-2</v>
+        <v>4.5315874275308685E-2</v>
       </c>
       <c r="F10" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>28.701369863013699</v>
+        <v>40.438356164383563</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="11">
-        <v>1.25E-3</v>
-      </c>
-      <c r="C11" s="10">
-        <v>46052</v>
-      </c>
-      <c r="D11" s="1">
-        <v>89.72</v>
+      <c r="B11" s="14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>52984</v>
+      </c>
+      <c r="D11" s="13">
+        <v>86.075000000000003</v>
       </c>
       <c r="E11" s="3">
         <f ca="1">YIELD(TODAY(),C11,B11,D11*1.001,100,2,1)</f>
-        <v>4.214480546383767E-2</v>
+        <v>4.5084614456481348E-2</v>
       </c>
       <c r="F11" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>31.989041095890407</v>
+        <v>259.62739726027394</v>
       </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C12" s="10">
-        <v>46225</v>
-      </c>
-      <c r="D12" s="1">
-        <v>91.96</v>
+      <c r="B12" s="14">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>53668</v>
+      </c>
+      <c r="D12" s="13">
+        <v>96.2</v>
       </c>
       <c r="E12" s="3">
         <f ca="1">YIELD(TODAY(),C12,B12,D12*1.001,100,2,1)</f>
-        <v>4.2307019781835084E-2</v>
+        <v>4.5071822879370033E-2</v>
       </c>
       <c r="F12" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>37.676712328767124</v>
+        <v>282.11506849315066</v>
       </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="11">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="C13" s="10">
-        <v>46317</v>
-      </c>
-      <c r="D13" s="1">
-        <v>87.48</v>
+      <c r="B13" s="14">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>52618</v>
+      </c>
+      <c r="D13" s="13">
+        <v>83.215000000000003</v>
       </c>
       <c r="E13" s="3">
         <f ca="1">YIELD(TODAY(),C13,B13,D13*1.001,100,2,1)</f>
-        <v>4.3621263392832038E-2</v>
+        <v>4.5016127490054722E-2</v>
       </c>
       <c r="F13" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>40.701369863013696</v>
+        <v>247.59452054794519</v>
       </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="11">
-        <v>4.1250000000000002E-2</v>
-      </c>
-      <c r="C14" s="10">
-        <v>46416</v>
-      </c>
-      <c r="D14" s="1">
-        <v>98.77</v>
+      <c r="B14" s="14">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>54764</v>
+      </c>
+      <c r="D14" s="13">
+        <v>96.16</v>
       </c>
       <c r="E14" s="3">
         <f ca="1">YIELD(TODAY(),C14,B14,D14*1.001,100,2,1)</f>
-        <v>4.4621773724263389E-2</v>
+        <v>4.4931172275459258E-2</v>
       </c>
       <c r="F14" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>43.956164383561642</v>
+        <v>318.14794520547946</v>
       </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="11">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C15" s="10">
-        <v>46590</v>
-      </c>
-      <c r="D15" s="1">
-        <v>88.965000000000003</v>
+      <c r="B15" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>53895</v>
+      </c>
+      <c r="D15" s="13">
+        <v>56.195</v>
       </c>
       <c r="E15" s="3">
         <f ca="1">YIELD(TODAY(),C15,B15,D15*1.001,100,2,1)</f>
-        <v>4.1561344459248022E-2</v>
+        <v>4.4878225723466177E-2</v>
       </c>
       <c r="F15" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>49.676712328767124</v>
+        <v>289.57808219178082</v>
       </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="11">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C16" s="10">
-        <v>46728</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100.17</v>
+      <c r="B16" s="14">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="C16" s="9">
+        <v>53358</v>
+      </c>
+      <c r="D16" s="13">
+        <v>48.965000000000003</v>
       </c>
       <c r="E16" s="3">
         <f ca="1">YIELD(TODAY(),C16,B16,D16*1.001,100,2,1)</f>
-        <v>4.1835490980169497E-2</v>
+        <v>4.4828987847900625E-2</v>
       </c>
       <c r="F16" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>54.213698630136989</v>
+        <v>271.92328767123286</v>
       </c>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="11">
-        <v>0</v>
-      </c>
-      <c r="C17" s="10">
-        <v>46728</v>
-      </c>
-      <c r="D17" s="1">
-        <v>84.4</v>
+      <c r="B17" s="14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>52207</v>
+      </c>
+      <c r="D17" s="13">
+        <v>100.17</v>
       </c>
       <c r="E17" s="3">
         <f ca="1">YIELD(TODAY(),C17,B17,D17*1.001,100,2,1)</f>
-        <v>3.7704375593480194E-2</v>
+        <v>4.4790430912101088E-2</v>
       </c>
       <c r="F17" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>54.213698630136989</v>
+        <v>234.08219178082192</v>
       </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="11">
-        <v>1.25E-3</v>
-      </c>
-      <c r="C18" s="10">
-        <v>46783</v>
-      </c>
-      <c r="D18" s="1">
-        <v>83.08</v>
+      <c r="B18" s="14">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>56179</v>
+      </c>
+      <c r="D18" s="13">
+        <v>87.89</v>
       </c>
       <c r="E18" s="3">
         <f ca="1">YIELD(TODAY(),C18,B18,D18*1.001,100,2,1)</f>
-        <v>4.1317786459591013E-2</v>
+        <v>4.4778221596533822E-2</v>
       </c>
       <c r="F18" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>56.021917808219186</v>
+        <v>364.66849315068498</v>
       </c>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="11">
-        <v>1.6250000000000001E-2</v>
-      </c>
-      <c r="C19" s="10">
-        <v>47048</v>
-      </c>
-      <c r="D19" s="1">
-        <v>88.23</v>
+      <c r="B19" s="14">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>51477</v>
+      </c>
+      <c r="D19" s="13">
+        <v>97.24</v>
       </c>
       <c r="E19" s="3">
         <f ca="1">YIELD(TODAY(),C19,B19,D19*1.001,100,2,1)</f>
-        <v>4.0604798951577065E-2</v>
+        <v>4.4710171638321021E-2</v>
       </c>
       <c r="F19" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>64.734246575342468</v>
+        <v>210.08219178082192</v>
       </c>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="C20" s="10">
-        <v>47094</v>
-      </c>
-      <c r="D20" s="1">
-        <v>109.07</v>
+      <c r="B20" s="14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>54445</v>
+      </c>
+      <c r="D20" s="13">
+        <v>58.704999999999998</v>
       </c>
       <c r="E20" s="3">
         <f ca="1">YIELD(TODAY(),C20,B20,D20*1.001,100,2,1)</f>
-        <v>4.1217182646602943E-2</v>
+        <v>4.469391666157118E-2</v>
       </c>
       <c r="F20" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>66.246575342465761</v>
+        <v>307.66027397260274</v>
       </c>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C21" s="10">
-        <v>47149</v>
-      </c>
-      <c r="D21" s="1">
-        <v>81.64</v>
+      <c r="B21" s="14">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>55722</v>
+      </c>
+      <c r="D21" s="13">
+        <v>88.36</v>
       </c>
       <c r="E21" s="3">
         <f ca="1">YIELD(TODAY(),C21,B21,D21*1.001,100,2,1)</f>
-        <v>4.1555027720023723E-2</v>
+        <v>4.4624049016841354E-2</v>
       </c>
       <c r="F21" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>68.054794520547944</v>
+        <v>349.64383561643837</v>
       </c>
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="11">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="C22" s="10">
-        <v>47413</v>
-      </c>
-      <c r="D22" s="1">
-        <v>82.42</v>
+      <c r="B22" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>51796</v>
+      </c>
+      <c r="D22" s="13">
+        <v>59.97</v>
       </c>
       <c r="E22" s="3">
         <f ca="1">YIELD(TODAY(),C22,B22,D22*1.001,100,2,1)</f>
-        <v>4.0066791579777293E-2</v>
+        <v>4.4610023067468987E-2</v>
       </c>
       <c r="F22" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>76.734246575342468</v>
+        <v>220.56986301369864</v>
       </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="11">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="C23" s="10">
-        <v>47778</v>
-      </c>
-      <c r="D23" s="1">
-        <v>76.78</v>
+      <c r="B23" s="14">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>51020</v>
+      </c>
+      <c r="D23" s="13">
+        <v>97.49</v>
       </c>
       <c r="E23" s="3">
         <f ca="1">YIELD(TODAY(),C23,B23,D23*1.001,100,2,1)</f>
-        <v>4.0278838499083515E-2</v>
+        <v>4.4598425947820132E-2</v>
       </c>
       <c r="F23" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>88.734246575342468</v>
+        <v>195.05753424657536</v>
       </c>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="11">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="C24" s="10">
-        <v>47824</v>
-      </c>
-      <c r="D24" s="1">
-        <v>104.64</v>
+      <c r="B24" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>55365</v>
+      </c>
+      <c r="D24" s="13">
+        <v>48.99</v>
       </c>
       <c r="E24" s="3">
         <f ca="1">YIELD(TODAY(),C24,B24,D24*1.001,100,2,1)</f>
-        <v>4.0122159773599113E-2</v>
+        <v>4.4392065928437967E-2</v>
       </c>
       <c r="F24" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>90.246575342465761</v>
+        <v>337.90684931506848</v>
       </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="11">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="C25" s="10">
-        <v>48060</v>
-      </c>
-      <c r="D25" s="1">
-        <v>73.724999999999994</v>
+      <c r="B25" s="14">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>50746</v>
+      </c>
+      <c r="D25" s="13">
+        <v>103.355</v>
       </c>
       <c r="E25" s="3">
         <f ca="1">YIELD(TODAY(),C25,B25,D25*1.001,100,2,1)</f>
-        <v>4.0518708492663209E-2</v>
+        <v>4.4388660342120731E-2</v>
       </c>
       <c r="F25" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>98.0054794520548</v>
+        <v>186.04931506849317</v>
       </c>
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="11">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C26" s="10">
-        <v>48372</v>
-      </c>
-      <c r="D26" s="1">
-        <v>101.545</v>
+      <c r="B26" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>56096</v>
+      </c>
+      <c r="D26" s="13">
+        <v>51.405000000000001</v>
       </c>
       <c r="E26" s="3">
         <f ca="1">YIELD(TODAY(),C26,B26,D26*1.001,100,2,1)</f>
-        <v>4.0302545104865937E-2</v>
+        <v>4.4354147761627404E-2</v>
       </c>
       <c r="F26" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>108.26301369863015</v>
+        <v>361.93972602739723</v>
       </c>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="11">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="C27" s="10">
-        <v>48610</v>
-      </c>
-      <c r="D27" s="1">
-        <v>92.935000000000002</v>
+      <c r="B27" s="14">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C27" s="9">
+        <v>56955</v>
+      </c>
+      <c r="D27" s="13">
+        <v>96.9</v>
       </c>
       <c r="E27" s="3">
         <f ca="1">YIELD(TODAY(),C27,B27,D27*1.001,100,2,1)</f>
-        <v>4.1319941345364666E-2</v>
+        <v>4.4251109861600572E-2</v>
       </c>
       <c r="F27" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>116.08767123287672</v>
+        <v>390.1808219178082</v>
       </c>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="11">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="C28" s="10">
-        <v>48791</v>
-      </c>
-      <c r="D28" s="1">
-        <v>73.02</v>
+      <c r="B28" s="14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C28" s="9">
+        <v>46225</v>
+      </c>
+      <c r="D28" s="13">
+        <v>91.48</v>
       </c>
       <c r="E28" s="3">
         <f ca="1">YIELD(TODAY(),C28,B28,D28*1.001,100,2,1)</f>
-        <v>4.1462564208567754E-2</v>
+        <v>4.4249168206208993E-2</v>
       </c>
       <c r="F28" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>122.03835616438357</v>
+        <v>37.413698630136984</v>
       </c>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="11">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C29" s="10">
-        <v>49194</v>
-      </c>
-      <c r="D29" s="1">
-        <v>102.715</v>
+      <c r="B29" s="14">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="C29" s="9">
+        <v>55083</v>
+      </c>
+      <c r="D29" s="13">
+        <v>40.08</v>
       </c>
       <c r="E29" s="3">
         <f ca="1">YIELD(TODAY(),C29,B29,D29*1.001,100,2,1)</f>
-        <v>4.18308274682151E-2</v>
+        <v>4.4170573988451652E-2</v>
       </c>
       <c r="F29" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>135.2876712328767</v>
+        <v>328.63561643835612</v>
       </c>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="11">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="C30" s="10">
-        <v>49521</v>
-      </c>
-      <c r="D30" s="1">
-        <v>65.819999999999993</v>
+      <c r="B30" s="14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>50290</v>
+      </c>
+      <c r="D30" s="13">
+        <v>71.98</v>
       </c>
       <c r="E30" s="3">
         <f ca="1">YIELD(TODAY(),C30,B30,D30*1.001,100,2,1)</f>
-        <v>4.2447512914742469E-2</v>
+        <v>4.414075969291037E-2</v>
       </c>
       <c r="F30" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>146.03835616438357</v>
+        <v>171.05753424657533</v>
       </c>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="11">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C31" s="10">
-        <v>49741</v>
-      </c>
-      <c r="D31" s="1">
-        <v>99.87</v>
+      <c r="B31" s="14">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C31" s="9">
+        <v>46052</v>
+      </c>
+      <c r="D31" s="13">
+        <v>89.34</v>
       </c>
       <c r="E31" s="3">
         <f ca="1">YIELD(TODAY(),C31,B31,D31*1.001,100,2,1)</f>
-        <v>4.2525132328740105E-2</v>
+        <v>4.4136370897471362E-2</v>
       </c>
       <c r="F31" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>153.27123287671233</v>
+        <v>31.726027397260275</v>
       </c>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="11">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="C32" s="10">
-        <v>50290</v>
-      </c>
-      <c r="D32" s="1">
-        <v>72.62</v>
+      <c r="B32" s="14">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C32" s="9">
+        <v>45322</v>
+      </c>
+      <c r="D32" s="13">
+        <v>97.23</v>
       </c>
       <c r="E32" s="3">
         <f ca="1">YIELD(TODAY(),C32,B32,D32*1.001,100,2,1)</f>
-        <v>4.3371576539014085E-2</v>
+        <v>4.4000052690658299E-2</v>
       </c>
       <c r="F32" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>171.32054794520548</v>
+        <v>7.7260273972602747</v>
       </c>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="11">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="C33" s="10">
-        <v>50746</v>
-      </c>
-      <c r="D33" s="1">
-        <v>104.29</v>
+      <c r="B33" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="C33" s="9">
+        <v>58462</v>
+      </c>
+      <c r="D33" s="13">
+        <v>93.46</v>
       </c>
       <c r="E33" s="3">
         <f ca="1">YIELD(TODAY(),C33,B33,D33*1.001,100,2,1)</f>
-        <v>4.3572854295734487E-2</v>
+        <v>4.3535203919821616E-2</v>
       </c>
       <c r="F33" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>186.31232876712329</v>
+        <v>439.72602739726028</v>
       </c>
       <c r="G33" s="7"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="11">
+      <c r="B34" s="14">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="C34" s="10">
-        <v>51020</v>
-      </c>
-      <c r="D34" s="1">
-        <v>98.22</v>
+      <c r="C34" s="9">
+        <v>46728</v>
+      </c>
+      <c r="D34" s="13">
+        <v>99.5</v>
       </c>
       <c r="E34" s="3">
         <f ca="1">YIELD(TODAY(),C34,B34,D34*1.001,100,2,1)</f>
-        <v>4.3953203918929387E-2</v>
+        <v>4.3490267210944615E-2</v>
       </c>
       <c r="F34" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>195.32054794520548</v>
+        <v>53.950684931506856</v>
       </c>
       <c r="G34" s="7"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="11">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C35" s="10">
-        <v>51477</v>
-      </c>
-      <c r="D35" s="1">
-        <v>98</v>
+      <c r="B35" s="14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>57548</v>
+      </c>
+      <c r="D35" s="13">
+        <v>54.09</v>
       </c>
       <c r="E35" s="3">
         <f ca="1">YIELD(TODAY(),C35,B35,D35*1.001,100,2,1)</f>
-        <v>4.4069328147510446E-2</v>
+        <v>4.3374240201246556E-2</v>
       </c>
       <c r="F35" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>210.34520547945206</v>
+        <v>409.67671232876711</v>
       </c>
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="11">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C36" s="10">
-        <v>51796</v>
-      </c>
-      <c r="D36" s="1">
-        <v>60.47</v>
+      <c r="B36" s="14">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>49741</v>
+      </c>
+      <c r="D36" s="13">
+        <v>99.07</v>
       </c>
       <c r="E36" s="3">
         <f ca="1">YIELD(TODAY(),C36,B36,D36*1.001,100,2,1)</f>
-        <v>4.4038194795476542E-2</v>
+        <v>4.3349734487153027E-2</v>
       </c>
       <c r="F36" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>220.83287671232878</v>
+        <v>153.00821917808219</v>
       </c>
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="11">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C37" s="10">
-        <v>52207</v>
-      </c>
-      <c r="D37" s="1">
-        <v>100.89</v>
+      <c r="B37" s="14">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="C37" s="9">
+        <v>49521</v>
+      </c>
+      <c r="D37" s="13">
+        <v>65.260000000000005</v>
       </c>
       <c r="E37" s="3">
         <f ca="1">YIELD(TODAY(),C37,B37,D37*1.001,100,2,1)</f>
-        <v>4.423612481518089E-2</v>
+        <v>4.3265237369956466E-2</v>
       </c>
       <c r="F37" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>234.34520547945206</v>
+        <v>145.77534246575343</v>
       </c>
       <c r="G37" s="7"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="11">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="C38" s="10">
-        <v>52618</v>
-      </c>
-      <c r="D38" s="1">
-        <v>83.674999999999997</v>
+      <c r="B38" s="14">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C38" s="9">
+        <v>46590</v>
+      </c>
+      <c r="D38" s="13">
+        <v>88.454999999999998</v>
       </c>
       <c r="E38" s="3">
         <f ca="1">YIELD(TODAY(),C38,B38,D38*1.001,100,2,1)</f>
-        <v>4.462039106722953E-2</v>
+        <v>4.317586990966539E-2</v>
       </c>
       <c r="F38" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>247.85753424657534</v>
+        <v>49.413698630136984</v>
       </c>
       <c r="G38" s="7"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C39" s="10">
-        <v>52984</v>
-      </c>
-      <c r="D39" s="1">
-        <v>86.504999999999995</v>
+      <c r="B39" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C39" s="9">
+        <v>47149</v>
+      </c>
+      <c r="D39" s="13">
+        <v>81.08</v>
       </c>
       <c r="E39" s="3">
         <f ca="1">YIELD(TODAY(),C39,B39,D39*1.001,100,2,1)</f>
-        <v>4.4733292949975426E-2</v>
+        <v>4.2961783137549399E-2</v>
       </c>
       <c r="F39" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>259.89041095890411</v>
+        <v>67.791780821917797</v>
       </c>
       <c r="G39" s="7"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="11">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="C40" s="10">
-        <v>53358</v>
-      </c>
-      <c r="D40" s="1">
-        <v>49.244999999999997</v>
+      <c r="B40" s="14">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C40" s="9">
+        <v>46783</v>
+      </c>
+      <c r="D40" s="13">
+        <v>82.55</v>
       </c>
       <c r="E40" s="3">
         <f ca="1">YIELD(TODAY(),C40,B40,D40*1.001,100,2,1)</f>
-        <v>4.4497360253528066E-2</v>
+        <v>4.2922135776374361E-2</v>
       </c>
       <c r="F40" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>272.18630136986303</v>
+        <v>55.758904109589039</v>
       </c>
       <c r="G40" s="7"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="11">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C41" s="10">
-        <v>53668</v>
-      </c>
-      <c r="D41" s="1">
-        <v>96.62</v>
+      <c r="B41" s="14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C41" s="9">
+        <v>61566</v>
+      </c>
+      <c r="D41" s="13">
+        <v>84.18</v>
       </c>
       <c r="E41" s="3">
         <f ca="1">YIELD(TODAY(),C41,B41,D41*1.001,100,2,1)</f>
-        <v>4.4771812579241788E-2</v>
+        <v>4.2917715882242226E-2</v>
       </c>
       <c r="F41" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>282.37808219178083</v>
+        <v>541.7753424657534</v>
       </c>
       <c r="G41" s="7"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C42" s="10">
-        <v>53895</v>
-      </c>
-      <c r="D42" s="1">
-        <v>56.375</v>
+      <c r="B42" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C42" s="9">
+        <v>60470</v>
+      </c>
+      <c r="D42" s="13">
+        <v>65.185000000000002</v>
       </c>
       <c r="E42" s="3">
         <f ca="1">YIELD(TODAY(),C42,B42,D42*1.001,100,2,1)</f>
-        <v>4.4681455067633158E-2</v>
+        <v>4.2903624148218023E-2</v>
       </c>
       <c r="F42" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>289.84109589041094</v>
+        <v>505.74246575342465</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="I42" s="12"/>
+      <c r="H42" s="1">
+        <v>100</v>
+      </c>
+      <c r="I42" s="10"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="11">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="C43" s="10">
-        <v>54445</v>
-      </c>
-      <c r="D43" s="1">
-        <v>58.945</v>
+      <c r="B43" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="C43" s="9">
+        <v>47094</v>
+      </c>
+      <c r="D43" s="13">
+        <v>108.19</v>
       </c>
       <c r="E43" s="3">
         <f ca="1">YIELD(TODAY(),C43,B43,D43*1.001,100,2,1)</f>
-        <v>4.4455387327087752E-2</v>
+        <v>4.287927616412833E-2</v>
       </c>
       <c r="F43" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>307.92328767123286</v>
+        <v>65.983561643835628</v>
       </c>
       <c r="G43" s="7"/>
-      <c r="I43" s="12"/>
+      <c r="I43" s="10"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="11">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C44" s="10">
-        <v>54764</v>
-      </c>
-      <c r="D44" s="1">
-        <v>96.53</v>
+      <c r="B44" s="14">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9">
+        <v>45723</v>
+      </c>
+      <c r="D44" s="13">
+        <v>92.8</v>
       </c>
       <c r="E44" s="3">
         <f ca="1">YIELD(TODAY(),C44,B44,D44*1.001,100,2,1)</f>
-        <v>4.4683719339124059E-2</v>
+        <v>4.2776224800007735E-2</v>
       </c>
       <c r="F44" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>318.41095890410958</v>
+        <v>20.909589041095892</v>
       </c>
       <c r="G44" s="7"/>
-      <c r="I44" s="12"/>
+      <c r="I44" s="10"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="11">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="C45" s="10">
-        <v>55083</v>
-      </c>
-      <c r="D45" s="1">
-        <v>40.229999999999997</v>
+      <c r="B45" s="14">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C45" s="9">
+        <v>49194</v>
+      </c>
+      <c r="D45" s="13">
+        <v>101.9</v>
       </c>
       <c r="E45" s="3">
         <f ca="1">YIELD(TODAY(),C45,B45,D45*1.001,100,2,1)</f>
-        <v>4.3980725990295053E-2</v>
+        <v>4.2732091448332434E-2</v>
       </c>
       <c r="F45" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>328.8986301369863</v>
+        <v>135.02465753424659</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="I45" s="12"/>
-      <c r="L45" s="13"/>
+      <c r="I45" s="10"/>
+      <c r="L45" s="11"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="11">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C46" s="10">
-        <v>55365</v>
-      </c>
-      <c r="D46" s="1">
-        <v>49.19</v>
+      <c r="B46" s="14">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="C46" s="9">
+        <v>48791</v>
+      </c>
+      <c r="D46" s="13">
+        <v>72.41</v>
       </c>
       <c r="E46" s="3">
         <f ca="1">YIELD(TODAY(),C46,B46,D46*1.001,100,2,1)</f>
-        <v>4.417744933788223E-2</v>
+        <v>4.2420279861147513E-2</v>
       </c>
       <c r="F46" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>338.16986301369866</v>
+        <v>121.77534246575343</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="5"/>
-      <c r="I46" s="14"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="11">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="C47" s="10">
-        <v>55722</v>
-      </c>
-      <c r="D47" s="1">
-        <v>88.66</v>
+      <c r="B47" s="14">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C47" s="9">
+        <v>48610</v>
+      </c>
+      <c r="D47" s="13">
+        <v>92.215000000000003</v>
       </c>
       <c r="E47" s="3">
         <f ca="1">YIELD(TODAY(),C47,B47,D47*1.001,100,2,1)</f>
-        <v>4.4419609088989863E-2</v>
+        <v>4.2294964364998966E-2</v>
       </c>
       <c r="F47" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>349.90684931506848</v>
+        <v>115.82465753424658</v>
       </c>
       <c r="G47" s="7"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C48" s="10">
-        <v>56096</v>
-      </c>
-      <c r="D48" s="1">
-        <v>51.625</v>
+      <c r="B48" s="14">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="C48" s="9">
+        <v>47048</v>
+      </c>
+      <c r="D48" s="13">
+        <v>87.56</v>
       </c>
       <c r="E48" s="3">
         <f ca="1">YIELD(TODAY(),C48,B48,D48*1.001,100,2,1)</f>
-        <v>4.4134822702703282E-2</v>
+        <v>4.2212348568470622E-2</v>
       </c>
       <c r="F48" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>362.2027397260274</v>
+        <v>64.471232876712335</v>
       </c>
       <c r="G48" s="7"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="11">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="C49" s="10">
-        <v>56179</v>
-      </c>
-      <c r="D49" s="1">
-        <v>88.13</v>
+      <c r="B49" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C49" s="9">
+        <v>59101</v>
+      </c>
+      <c r="D49" s="13">
+        <v>29.87</v>
       </c>
       <c r="E49" s="3">
         <f ca="1">YIELD(TODAY(),C49,B49,D49*1.001,100,2,1)</f>
-        <v>4.4616941680854963E-2</v>
+        <v>4.1872412392274391E-2</v>
       </c>
       <c r="F49" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>364.93150684931504</v>
+        <v>460.73424657534247</v>
       </c>
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="11">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C50" s="10">
-        <v>56955</v>
-      </c>
-      <c r="D50" s="1">
-        <v>97.26</v>
+      <c r="B50" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="C50" s="9">
+        <v>48244</v>
+      </c>
+      <c r="D50" s="13">
+        <v>77.015000000000001</v>
       </c>
       <c r="E50" s="3">
         <f ca="1">YIELD(TODAY(),C50,B50,D50*1.001,100,2,1)</f>
-        <v>4.4036208804119008E-2</v>
+        <v>4.186724801309203E-2</v>
       </c>
       <c r="F50" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>390.44383561643838</v>
+        <v>103.7917808219178</v>
       </c>
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="11">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="C51" s="10">
-        <v>57548</v>
-      </c>
-      <c r="D51" s="1">
-        <v>54.13</v>
+      <c r="B51" s="14">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="C51" s="9">
+        <v>62753</v>
+      </c>
+      <c r="D51" s="13">
+        <v>47.274999999999999</v>
       </c>
       <c r="E51" s="3">
         <f ca="1">YIELD(TODAY(),C51,B51,D51*1.001,100,2,1)</f>
-        <v>4.3328923595487304E-2</v>
+        <v>4.1647250203451357E-2</v>
       </c>
       <c r="F51" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>409.93972602739723</v>
+        <v>580.79999999999995</v>
       </c>
       <c r="G51" s="7"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="C52" s="10">
-        <v>58462</v>
-      </c>
-      <c r="D52" s="1">
-        <v>93.5</v>
+      <c r="B52" s="14">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C52" s="9">
+        <v>48060</v>
+      </c>
+      <c r="D52" s="13">
+        <v>73.144999999999996</v>
       </c>
       <c r="E52" s="3">
         <f ca="1">YIELD(TODAY(),C52,B52,D52*1.001,100,2,1)</f>
-        <v>4.3510945769464716E-2</v>
+        <v>4.1623482308767001E-2</v>
       </c>
       <c r="F52" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>439.98904109589034</v>
+        <v>97.742465753424668</v>
       </c>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C53" s="10">
-        <v>59101</v>
-      </c>
-      <c r="D53" s="1">
-        <v>29.945</v>
+      <c r="B53" s="14">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="C53" s="9">
+        <v>47413</v>
+      </c>
+      <c r="D53" s="13">
+        <v>81.709999999999994</v>
       </c>
       <c r="E53" s="3">
         <f ca="1">YIELD(TODAY(),C53,B53,D53*1.001,100,2,1)</f>
-        <v>4.177137238720096E-2</v>
+        <v>4.1599215381734757E-2</v>
       </c>
       <c r="F53" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>460.99726027397264</v>
+        <v>76.471232876712335</v>
       </c>
       <c r="G53" s="7"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C54" s="10">
-        <v>60470</v>
-      </c>
-      <c r="D54" s="1">
-        <v>65.23</v>
+      <c r="B54" s="14">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="C54" s="9">
+        <v>47778</v>
+      </c>
+      <c r="D54" s="13">
+        <v>76.16</v>
       </c>
       <c r="E54" s="3">
         <f ca="1">YIELD(TODAY(),C54,B54,D54*1.001,100,2,1)</f>
-        <v>4.2867083637770378E-2</v>
+        <v>4.152698148793068E-2</v>
       </c>
       <c r="F54" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>506.00547945205477</v>
+        <v>88.471232876712335</v>
       </c>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C55" s="10">
-        <v>61566</v>
-      </c>
-      <c r="D55" s="1">
-        <v>84.18</v>
+      <c r="B55" s="14">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C55" s="9">
+        <v>47824</v>
+      </c>
+      <c r="D55" s="13">
+        <v>103.81</v>
       </c>
       <c r="E55" s="3">
         <f ca="1">YIELD(TODAY(),C55,B55,D55*1.001,100,2,1)</f>
-        <v>4.2916020616207973E-2</v>
+        <v>4.1370508217517761E-2</v>
       </c>
       <c r="F55" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>542.03835616438357</v>
+        <v>89.983561643835628</v>
       </c>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="11">
-        <v>1.6250000000000001E-2</v>
-      </c>
-      <c r="C56" s="10">
-        <v>62753</v>
-      </c>
-      <c r="D56" s="1">
-        <v>47.255000000000003</v>
+      <c r="B56" s="14">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C56" s="9">
+        <v>48372</v>
+      </c>
+      <c r="D56" s="13">
+        <v>100.785</v>
       </c>
       <c r="E56" s="3">
         <f ca="1">YIELD(TODAY(),C56,B56,D56*1.001,100,2,1)</f>
-        <v>4.1657833174417534E-2</v>
+        <v>4.1310143716150487E-2</v>
       </c>
       <c r="F56" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>581.06301369863013</v>
+        <v>108</v>
       </c>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="11">
+      <c r="B57" s="14">
         <v>1.125E-2</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>63484</v>
       </c>
-      <c r="D57" s="9">
-        <v>37.020000000000003</v>
+      <c r="D57" s="13">
+        <v>37</v>
       </c>
       <c r="E57" s="3">
         <f ca="1">YIELD(TODAY(),C57,B57,D57*1.001,100,2,1)</f>
-        <v>4.0780020627796343E-2</v>
+        <v>4.0806795434555086E-2</v>
       </c>
       <c r="F57" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>605.09589041095887</v>
+        <v>604.83287671232881</v>
       </c>
       <c r="G57" s="7"/>
     </row>
@@ -4112,9 +4108,11 @@
       <c r="G58" s="7"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="1"/>
       <c r="G59" s="7"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="1"/>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
@@ -4124,403 +4122,31 @@
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="1"/>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="1"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="1"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="1"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="1"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="1"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="1"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="1"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="1"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B181" s="1"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="1"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183" s="1"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B184" s="1"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B185" s="1"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B186" s="1"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B187" s="1"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B188" s="1"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189" s="1"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B190" s="1"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B191" s="1"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B192" s="1"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" s="1"/>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G71" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/YTM.xlsx
+++ b/YTM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcornish\AppData\Local\Temp\MicrosoftEdgeDownloads\06d90812-e300-4362-bc84-97cad95b97ab\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A34A63-C001-47D1-B481-85D596BE27C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>YTM</t>
   </si>
@@ -51,17 +52,35 @@
   <si>
     <t>Months left</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Value on Settlement</t>
+  </si>
+  <si>
+    <t>Gain at maturity</t>
+  </si>
+  <si>
+    <t>Less trading fees</t>
+  </si>
+  <si>
+    <t>Less Management fee</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="#,##0;[Red]\(#,##0\)"/>
-    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="#,##0;[Red]\(#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -106,33 +125,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -149,42 +167,7 @@
         <sz val="9"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -204,7 +187,26 @@
         <name val="Courier New"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="167" formatCode="#,##0;[Red]\(#,##0\)"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -222,7 +224,25 @@
         <name val="Courier New"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="166" formatCode="#,##0;[Red]\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -286,7 +306,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -350,348 +369,384 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$57</c:f>
+              <c:f>Sheet2!$C$3:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>45952</c:v>
+                  <c:v>45404</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45688</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45542</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45723</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>54764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52618</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55722</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52526</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45952</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54445</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53358</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55365</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52207</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55083</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58462</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45815</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51477</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59831</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51796</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57548</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45907</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60470</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61566</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50434</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50746</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46728</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50290</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46052</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62753</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49741</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>46416</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>45404</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45907</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="41">
+                  <c:v>49521</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46225</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>46317</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>52984</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53668</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52618</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>54764</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>53895</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>53358</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>52207</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56179</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>51477</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>54445</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>55722</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>51796</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51020</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>55365</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50746</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>56096</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>56955</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>46225</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55083</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>50290</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>46052</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45322</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>58462</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="44">
+                  <c:v>49194</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63484</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46911</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48791</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48610</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>46728</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>57548</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>49741</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>49521</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="50">
                   <c:v>46590</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="51">
+                  <c:v>47094</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>47149</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="53">
+                  <c:v>48244</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>46783</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>61566</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>60470</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>47094</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45723</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>49194</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48791</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>48610</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
+                  <c:v>48372</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48060</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>47048</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>59101</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48244</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>62753</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48060</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="58">
+                  <c:v>47824</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>47413</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>47778</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>47824</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>48372</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>63484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$E$57</c:f>
+              <c:f>Sheet2!$E$3:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>4.8893216287053315E-2</c:v>
+                  <c:v>4.8013610960222455E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8194395231087844E-2</c:v>
+                  <c:v>4.7141145069687057E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7363259061430033E-2</c:v>
+                  <c:v>4.5739546151089973E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.735286886688659E-2</c:v>
+                  <c:v>4.5623699842176936E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6254640314868048E-2</c:v>
+                  <c:v>4.4678104796166893E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6112558107972296E-2</c:v>
+                  <c:v>4.4670261263383984E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6068838153436056E-2</c:v>
+                  <c:v>4.4598235229966247E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5315874275308685E-2</c:v>
+                  <c:v>4.4585741362439778E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5084614456481348E-2</c:v>
+                  <c:v>4.4491598882536502E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5071822879370033E-2</c:v>
+                  <c:v>4.4431928338004752E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5016127490054722E-2</c:v>
+                  <c:v>4.4431108153850173E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4931172275459258E-2</c:v>
+                  <c:v>4.4407782773246862E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4878225723466177E-2</c:v>
+                  <c:v>4.4350707530242547E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4828987847900625E-2</c:v>
+                  <c:v>4.4333901969204732E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4790430912101088E-2</c:v>
+                  <c:v>4.4326462878021999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4778221596533822E-2</c:v>
+                  <c:v>4.4238346932848789E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4710171638321021E-2</c:v>
+                  <c:v>4.423256584189289E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.469391666157118E-2</c:v>
+                  <c:v>4.4103130581353192E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4624049016841354E-2</c:v>
+                  <c:v>4.410171795286736E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4610023067468987E-2</c:v>
+                  <c:v>4.4068793911418491E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4598425947820132E-2</c:v>
+                  <c:v>4.3814248043680129E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4392065928437967E-2</c:v>
+                  <c:v>4.3679682131130097E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4388660342120731E-2</c:v>
+                  <c:v>4.3626637442138384E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4354147761627404E-2</c:v>
+                  <c:v>4.3624278080225537E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4251109861600572E-2</c:v>
+                  <c:v>4.3615528828172524E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.4249168206208993E-2</c:v>
+                  <c:v>4.3600186870194943E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4170573988451652E-2</c:v>
+                  <c:v>4.3447696872600403E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.414075969291037E-2</c:v>
+                  <c:v>4.3297884004924798E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.4136370897471362E-2</c:v>
+                  <c:v>4.3207649839420173E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.4000052690658299E-2</c:v>
+                  <c:v>4.3145020844177637E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.3535203919821616E-2</c:v>
+                  <c:v>4.2971652073107963E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.3490267210944615E-2</c:v>
+                  <c:v>4.294703269005333E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.3374240201246556E-2</c:v>
+                  <c:v>4.2844166177344725E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.3349734487153027E-2</c:v>
+                  <c:v>4.2829797149947196E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.3265237369956466E-2</c:v>
+                  <c:v>4.2521638500401089E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.317586990966539E-2</c:v>
+                  <c:v>4.2354315660243537E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.2961783137549399E-2</c:v>
+                  <c:v>4.1416997044718663E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.2922135776374361E-2</c:v>
+                  <c:v>4.1296043413059133E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.2917715882242226E-2</c:v>
+                  <c:v>4.1277389739589138E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.2903624148218023E-2</c:v>
+                  <c:v>4.1247328297384742E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.287927616412833E-2</c:v>
+                  <c:v>4.1235050077177628E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2776224800007735E-2</c:v>
+                  <c:v>4.1083666486568457E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2732091448332434E-2</c:v>
+                  <c:v>4.105784271762581E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.2420279861147513E-2</c:v>
+                  <c:v>4.0908753032199013E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.2294964364998966E-2</c:v>
+                  <c:v>4.0529158209498393E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.2212348568470622E-2</c:v>
+                  <c:v>4.0058175428137242E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.1872412392274391E-2</c:v>
+                  <c:v>3.9931208184654912E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.186724801309203E-2</c:v>
+                  <c:v>3.9807388352557725E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.1647250203451357E-2</c:v>
+                  <c:v>3.9478198304881126E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.1623482308767001E-2</c:v>
+                  <c:v>3.9420366008733096E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.1599215381734757E-2</c:v>
+                  <c:v>3.9298834869219999E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.152698148793068E-2</c:v>
+                  <c:v>3.9065149568187005E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.1370508217517761E-2</c:v>
+                  <c:v>3.9018757862153225E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.1310143716150487E-2</c:v>
+                  <c:v>3.8939776228355157E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.0806795434555086E-2</c:v>
+                  <c:v>3.8905560297216278E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8687534713923138E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.8560508711458691E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8381117038860532E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.8338355437555587E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.8214960948407012E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.8155785591358418E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,7 +936,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -944,348 +998,384 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$C$3:$C$60</c:f>
+              <c:f>Sheet2!$C$3:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>45952</c:v>
+                  <c:v>45404</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>45542</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>45688</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45542</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>45723</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>54764</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52618</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53895</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55722</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52526</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45952</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56955</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54445</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53358</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56096</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55365</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52207</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55083</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>58462</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45815</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51477</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59831</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51796</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57548</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45907</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60470</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61566</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50434</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50746</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46728</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50290</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46052</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>59101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>62753</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>49741</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>46416</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>45404</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45907</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="41">
+                  <c:v>49521</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>46225</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>46317</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>52984</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53668</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52618</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>54764</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>53895</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>53358</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>52207</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56179</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>51477</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>54445</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>55722</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>51796</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51020</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>55365</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50746</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>56096</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>56955</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>46225</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55083</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>50290</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>46052</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45322</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>58462</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="44">
+                  <c:v>49194</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>63484</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46911</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48791</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48610</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>46728</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>57548</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>49741</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>49521</c:v>
-                </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="50">
                   <c:v>46590</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="51">
+                  <c:v>47094</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>47149</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="53">
+                  <c:v>48244</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>46783</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>61566</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>60470</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>47094</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45723</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>49194</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>48791</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>48610</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="55">
+                  <c:v>48372</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48060</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>47048</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>59101</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48244</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>62753</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48060</c:v>
-                </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="58">
+                  <c:v>47824</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>47413</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>47778</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>47824</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>48372</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>63484</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$3:$E$60</c:f>
+              <c:f>Sheet2!$E$3:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="58"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
-                  <c:v>4.8893216287053315E-2</c:v>
+                  <c:v>4.8013610960222455E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8194395231087844E-2</c:v>
+                  <c:v>4.7141145069687057E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7363259061430033E-2</c:v>
+                  <c:v>4.5739546151089973E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.735286886688659E-2</c:v>
+                  <c:v>4.5623699842176936E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6254640314868048E-2</c:v>
+                  <c:v>4.4678104796166893E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.6112558107972296E-2</c:v>
+                  <c:v>4.4670261263383984E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.6068838153436056E-2</c:v>
+                  <c:v>4.4598235229966247E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5315874275308685E-2</c:v>
+                  <c:v>4.4585741362439778E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5084614456481348E-2</c:v>
+                  <c:v>4.4491598882536502E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.5071822879370033E-2</c:v>
+                  <c:v>4.4431928338004752E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5016127490054722E-2</c:v>
+                  <c:v>4.4431108153850173E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4931172275459258E-2</c:v>
+                  <c:v>4.4407782773246862E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4878225723466177E-2</c:v>
+                  <c:v>4.4350707530242547E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4828987847900625E-2</c:v>
+                  <c:v>4.4333901969204732E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4790430912101088E-2</c:v>
+                  <c:v>4.4326462878021999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.4778221596533822E-2</c:v>
+                  <c:v>4.4238346932848789E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4710171638321021E-2</c:v>
+                  <c:v>4.423256584189289E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.469391666157118E-2</c:v>
+                  <c:v>4.4103130581353192E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.4624049016841354E-2</c:v>
+                  <c:v>4.410171795286736E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4610023067468987E-2</c:v>
+                  <c:v>4.4068793911418491E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4598425947820132E-2</c:v>
+                  <c:v>4.3814248043680129E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.4392065928437967E-2</c:v>
+                  <c:v>4.3679682131130097E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4388660342120731E-2</c:v>
+                  <c:v>4.3626637442138384E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4354147761627404E-2</c:v>
+                  <c:v>4.3624278080225537E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.4251109861600572E-2</c:v>
+                  <c:v>4.3615528828172524E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.4249168206208993E-2</c:v>
+                  <c:v>4.3600186870194943E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4170573988451652E-2</c:v>
+                  <c:v>4.3447696872600403E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.414075969291037E-2</c:v>
+                  <c:v>4.3297884004924798E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.4136370897471362E-2</c:v>
+                  <c:v>4.3207649839420173E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.4000052690658299E-2</c:v>
+                  <c:v>4.3145020844177637E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.3535203919821616E-2</c:v>
+                  <c:v>4.2971652073107963E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.3490267210944615E-2</c:v>
+                  <c:v>4.294703269005333E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.3374240201246556E-2</c:v>
+                  <c:v>4.2844166177344725E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.3349734487153027E-2</c:v>
+                  <c:v>4.2829797149947196E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.3265237369956466E-2</c:v>
+                  <c:v>4.2521638500401089E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.317586990966539E-2</c:v>
+                  <c:v>4.2354315660243537E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.2961783137549399E-2</c:v>
+                  <c:v>4.1416997044718663E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.2922135776374361E-2</c:v>
+                  <c:v>4.1296043413059133E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.2917715882242226E-2</c:v>
+                  <c:v>4.1277389739589138E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.2903624148218023E-2</c:v>
+                  <c:v>4.1247328297384742E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.287927616412833E-2</c:v>
+                  <c:v>4.1235050077177628E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.2776224800007735E-2</c:v>
+                  <c:v>4.1083666486568457E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2732091448332434E-2</c:v>
+                  <c:v>4.105784271762581E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.2420279861147513E-2</c:v>
+                  <c:v>4.0908753032199013E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.2294964364998966E-2</c:v>
+                  <c:v>4.0529158209498393E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.2212348568470622E-2</c:v>
+                  <c:v>4.0058175428137242E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.1872412392274391E-2</c:v>
+                  <c:v>3.9931208184654912E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.186724801309203E-2</c:v>
+                  <c:v>3.9807388352557725E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4.1647250203451357E-2</c:v>
+                  <c:v>3.9478198304881126E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4.1623482308767001E-2</c:v>
+                  <c:v>3.9420366008733096E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.1599215381734757E-2</c:v>
+                  <c:v>3.9298834869219999E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.152698148793068E-2</c:v>
+                  <c:v>3.9065149568187005E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.1370508217517761E-2</c:v>
+                  <c:v>3.9018757862153225E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.1310143716150487E-2</c:v>
+                  <c:v>3.8939776228355157E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.0806795434555086E-2</c:v>
+                  <c:v>3.8905560297216278E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.8687534713923138E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.8560508711458691E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8381117038860532E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.8338355437555587E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.8214960948407012E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.8155785591358418E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2564,13 +2654,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2641,19 +2731,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F57" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B2:F57"/>
-  <sortState ref="B3:F57">
-    <sortCondition descending="1" ref="E2:E57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B2:F63" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B2:F63" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F63">
+    <sortCondition descending="1" ref="E2:E63"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="Coupon (%)" dataDxfId="0" dataCellStyle="Percent"/>
-    <tableColumn id="2" name="Maturity" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="3" name="Price" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="4" name="YTM" dataDxfId="4">
-      <calculatedColumnFormula>YIELD(TODAY(),C3,B3,D3*1.001,100,2,1)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Coupon (%)" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Maturity" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Price" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="YTM" dataDxfId="1">
+      <calculatedColumnFormula>YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Months left" dataDxfId="3" dataCellStyle="Comma">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Months left" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2957,11 +3047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2969,21 +3059,23 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -2994,803 +3086,850 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="14">
-        <v>3.5000000000000003E-2</v>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
+        <v>0.01</v>
       </c>
       <c r="C3" s="9">
-        <v>45952</v>
-      </c>
-      <c r="D3" s="13">
-        <v>96.83</v>
+        <v>45404</v>
+      </c>
+      <c r="D3" s="1">
+        <v>98.589999999999989</v>
       </c>
       <c r="E3" s="3">
-        <f ca="1">YIELD(TODAY(),C3,B3,D3*1.001,100,2,1)</f>
-        <v>4.8893216287053315E-2</v>
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.8013610960222455E-2</v>
       </c>
       <c r="F3" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>28.438356164383563</v>
+        <v>4.536986301369863</v>
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="14">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>2.75E-2</v>
+      </c>
+      <c r="C4" s="9">
+        <v>45542</v>
+      </c>
+      <c r="D4" s="1">
+        <v>98.559999999999988</v>
+      </c>
+      <c r="E4" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.7141145069687057E-2</v>
+      </c>
+      <c r="F4" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>9.0739726027397261</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C5" s="9">
         <v>45688</v>
       </c>
-      <c r="D4" s="13">
-        <v>92.78</v>
-      </c>
-      <c r="E4" s="3">
-        <f ca="1">YIELD(TODAY(),C4,B4,D4*1.001,100,2,1)</f>
-        <v>4.8194395231087844E-2</v>
-      </c>
-      <c r="F4" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>19.758904109589039</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="14">
-        <v>2.75E-2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>45542</v>
-      </c>
-      <c r="D5" s="13">
-        <v>97.53</v>
+      <c r="D5" s="1">
+        <v>95.199999999999989</v>
       </c>
       <c r="E5" s="3">
-        <f ca="1">YIELD(TODAY(),C5,B5,D5*1.001,100,2,1)</f>
-        <v>4.7363259061430033E-2</v>
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.5739546151089973E-2</v>
       </c>
       <c r="F5" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>14.958904109589042</v>
+        <v>13.873972602739725</v>
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="14">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
         <v>0.05</v>
       </c>
       <c r="C6" s="9">
         <v>45723</v>
       </c>
-      <c r="D6" s="13">
-        <v>100.33</v>
+      <c r="D6" s="1">
+        <v>100.52</v>
       </c>
       <c r="E6" s="3">
-        <f ca="1">YIELD(TODAY(),C6,B6,D6*1.001,100,2,1)</f>
-        <v>4.735286886688659E-2</v>
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.5623699842176936E-2</v>
       </c>
       <c r="F6" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>20.909589041095892</v>
+        <v>15.024657534246575</v>
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="14">
-        <v>4.1250000000000002E-2</v>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="C7" s="9">
-        <v>46416</v>
-      </c>
-      <c r="D7" s="13">
-        <v>98.24</v>
+        <v>54764</v>
+      </c>
+      <c r="D7" s="1">
+        <v>96.669999999999987</v>
       </c>
       <c r="E7" s="3">
-        <f ca="1">YIELD(TODAY(),C7,B7,D7*1.001,100,2,1)</f>
-        <v>4.6254640314868048E-2</v>
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4678104796166893E-2</v>
       </c>
       <c r="F7" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>43.693150684931503</v>
+        <v>312.26301369863017</v>
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="14">
-        <v>0.01</v>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="C8" s="9">
-        <v>45404</v>
-      </c>
-      <c r="D8" s="13">
-        <v>96.87</v>
+        <v>53668</v>
+      </c>
+      <c r="D8" s="1">
+        <v>96.899999999999991</v>
       </c>
       <c r="E8" s="3">
-        <f ca="1">YIELD(TODAY(),C8,B8,D8*1.001,100,2,1)</f>
-        <v>4.6112558107972296E-2</v>
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4670261263383984E-2</v>
       </c>
       <c r="F8" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>10.421917808219177</v>
+        <v>276.23013698630137</v>
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="14">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C9" s="9">
+        <v>52984</v>
+      </c>
+      <c r="D9" s="1">
+        <v>86.949999999999989</v>
+      </c>
+      <c r="E9" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4598235229966247E-2</v>
+      </c>
+      <c r="F9" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>253.74246575342465</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C10" s="9">
+        <v>56179</v>
+      </c>
+      <c r="D10" s="1">
+        <v>88.36</v>
+      </c>
+      <c r="E10" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4585741362439778E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>358.78356164383564</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>52618</v>
+      </c>
+      <c r="D11" s="1">
+        <v>84.16</v>
+      </c>
+      <c r="E11" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4491598882536502E-2</v>
+      </c>
+      <c r="F11" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>241.70958904109591</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="Q11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C12" s="9">
+        <v>53895</v>
+      </c>
+      <c r="D12" s="1">
+        <v>57.21</v>
+      </c>
+      <c r="E12" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4431928338004752E-2</v>
+      </c>
+      <c r="F12" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>283.69315068493154</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="Q12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="16">
+        <f ca="1">R11*E3</f>
+        <v>144.04083288066735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>55722</v>
+      </c>
+      <c r="D13" s="1">
+        <v>88.83</v>
+      </c>
+      <c r="E13" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4431108153850173E-2</v>
+      </c>
+      <c r="F13" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>343.75890410958903</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="Q13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="16">
+        <f>-(11.95*2)</f>
+        <v>-23.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>52526</v>
+      </c>
+      <c r="D14" s="1">
+        <v>104.05</v>
+      </c>
+      <c r="E14" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4407782773246862E-2</v>
+      </c>
+      <c r="F14" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>238.6849315068493</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="Q14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="16">
+        <f ca="1">-R11*0.0045*F3/12</f>
+        <v>-5.1041095890410952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>45952</v>
+      </c>
+      <c r="D15" s="1">
+        <v>98.33</v>
+      </c>
+      <c r="E15" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4350707530242547E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>22.553424657534247</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="R15" s="16">
+        <f ca="1">SUM(R12:R14)</f>
+        <v>115.03672329162625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>56955</v>
+      </c>
+      <c r="D16" s="1">
+        <v>96.88</v>
+      </c>
+      <c r="E16" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4333901969204732E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>384.29589041095886</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="Q16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="15">
+        <f ca="1">R15/R11</f>
+        <v>3.8345574430542081E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>54445</v>
+      </c>
+      <c r="D17" s="1">
+        <v>59.59</v>
+      </c>
+      <c r="E17" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4326462878021999E-2</v>
+      </c>
+      <c r="F17" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>301.7753424657534</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="C18" s="9">
+        <v>53358</v>
+      </c>
+      <c r="D18" s="1">
+        <v>50.21</v>
+      </c>
+      <c r="E18" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4238346932848789E-2</v>
+      </c>
+      <c r="F18" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>266.03835616438357</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C19" s="9">
+        <v>45322</v>
+      </c>
+      <c r="D19" s="1">
+        <v>99.35</v>
+      </c>
+      <c r="E19" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.423256584189289E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>1.8410958904109589</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>56096</v>
+      </c>
+      <c r="D20" s="1">
+        <v>52.11</v>
+      </c>
+      <c r="E20" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4103130581353192E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>356.05479452054794</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>55365</v>
+      </c>
+      <c r="D21" s="1">
+        <v>49.79</v>
+      </c>
+      <c r="E21" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.410171795286736E-2</v>
+      </c>
+      <c r="F21" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>332.0219178082192</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C22" s="9">
+        <v>52207</v>
+      </c>
+      <c r="D22" s="1">
+        <v>101.19</v>
+      </c>
+      <c r="E22" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.4068793911418491E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>228.19726027397257</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="C23" s="9">
+        <v>55083</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41.01</v>
+      </c>
+      <c r="E23" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.3814248043680129E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>322.75068493150684</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C24" s="9">
+        <v>58462</v>
+      </c>
+      <c r="D24" s="1">
+        <v>93.339999999999989</v>
+      </c>
+      <c r="E24" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.3679682131130097E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>433.84109589041094</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>45815</v>
+      </c>
+      <c r="D25" s="1">
+        <v>94.61999999999999</v>
+      </c>
+      <c r="E25" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.3626637442138384E-2</v>
+      </c>
+      <c r="F25" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>18.049315068493151</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C26" s="9">
+        <v>51477</v>
+      </c>
+      <c r="D26" s="1">
+        <v>98.66</v>
+      </c>
+      <c r="E26" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.3624278080225537E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>204.19726027397257</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C27" s="9">
+        <v>59831</v>
+      </c>
+      <c r="D27" s="1">
+        <v>93.19</v>
+      </c>
+      <c r="E27" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.3615528828172524E-2</v>
+      </c>
+      <c r="F27" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>478.84931506849318</v>
+      </c>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C28" s="9">
+        <v>51796</v>
+      </c>
+      <c r="D28" s="1">
+        <v>61.660000000000004</v>
+      </c>
+      <c r="E28" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.3600186870194943E-2</v>
+      </c>
+      <c r="F28" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>214.6849315068493</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C29" s="9">
+        <v>57548</v>
+      </c>
+      <c r="D29" s="1">
+        <v>54.35</v>
+      </c>
+      <c r="E29" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.3447696872600403E-2</v>
+      </c>
+      <c r="F29" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>403.79178082191783</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C30" s="9">
+        <v>51020</v>
+      </c>
+      <c r="D30" s="1">
+        <v>99.089999999999989</v>
+      </c>
+      <c r="E30" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.3297884004924798E-2</v>
+      </c>
+      <c r="F30" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>189.17260273972602</v>
+      </c>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
         <v>0.02</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C31" s="9">
         <v>45907</v>
       </c>
-      <c r="D9" s="13">
-        <v>94.41</v>
-      </c>
-      <c r="E9" s="3">
-        <f ca="1">YIELD(TODAY(),C9,B9,D9*1.001,100,2,1)</f>
-        <v>4.6068838153436056E-2</v>
-      </c>
-      <c r="F9" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>26.958904109589042</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="14">
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="C10" s="9">
-        <v>46317</v>
-      </c>
-      <c r="D10" s="13">
-        <v>87.07</v>
-      </c>
-      <c r="E10" s="3">
-        <f ca="1">YIELD(TODAY(),C10,B10,D10*1.001,100,2,1)</f>
-        <v>4.5315874275308685E-2</v>
-      </c>
-      <c r="F10" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>40.438356164383563</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="14">
+      <c r="D31" s="1">
+        <v>96.11999999999999</v>
+      </c>
+      <c r="E31" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.3207649839420173E-2</v>
+      </c>
+      <c r="F31" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>21.073972602739726</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>1.125E-2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>50801</v>
+      </c>
+      <c r="D32" s="1">
+        <v>64.789999999999992</v>
+      </c>
+      <c r="E32" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.3145020844177637E-2</v>
+      </c>
+      <c r="F32" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>181.97260273972603</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C33" s="9">
+        <v>60470</v>
+      </c>
+      <c r="D33" s="1">
+        <v>65.3</v>
+      </c>
+      <c r="E33" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.2971652073107963E-2</v>
+      </c>
+      <c r="F33" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>499.85753424657537</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C11" s="9">
-        <v>52984</v>
-      </c>
-      <c r="D11" s="13">
-        <v>86.075000000000003</v>
-      </c>
-      <c r="E11" s="3">
-        <f ca="1">YIELD(TODAY(),C11,B11,D11*1.001,100,2,1)</f>
-        <v>4.5084614456481348E-2</v>
-      </c>
-      <c r="F11" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>259.62739726027394</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="14">
+      <c r="C34" s="9">
+        <v>61566</v>
+      </c>
+      <c r="D34" s="1">
+        <v>84.27</v>
+      </c>
+      <c r="E34" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.294703269005333E-2</v>
+      </c>
+      <c r="F34" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>535.89041095890411</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="C35" s="9">
+        <v>50434</v>
+      </c>
+      <c r="D35" s="1">
+        <v>94.36999999999999</v>
+      </c>
+      <c r="E35" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.2844166177344725E-2</v>
+      </c>
+      <c r="F35" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>169.90684931506848</v>
+      </c>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C36" s="9">
+        <v>50746</v>
+      </c>
+      <c r="D36" s="1">
+        <v>105.13</v>
+      </c>
+      <c r="E36" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.2829797149947196E-2</v>
+      </c>
+      <c r="F36" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>180.16438356164383</v>
+      </c>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9">
+        <v>46728</v>
+      </c>
+      <c r="D37" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="E37" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.2521638500401089E-2</v>
+      </c>
+      <c r="F37" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>48.065753424657537</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="C38" s="9">
+        <v>50290</v>
+      </c>
+      <c r="D38" s="1">
+        <v>74.289999999999992</v>
+      </c>
+      <c r="E38" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.2354315660243537E-2</v>
+      </c>
+      <c r="F38" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>165.17260273972602</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="1">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C39" s="9">
+        <v>46052</v>
+      </c>
+      <c r="D39" s="1">
+        <v>91.82</v>
+      </c>
+      <c r="E39" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.1416997044718663E-2</v>
+      </c>
+      <c r="F39" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>25.841095890410955</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="I39" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C40" s="9">
+        <v>59101</v>
+      </c>
+      <c r="D40" s="1">
+        <v>30.795000000000002</v>
+      </c>
+      <c r="E40" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.1296043413059133E-2</v>
+      </c>
+      <c r="F40" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>454.84931506849318</v>
+      </c>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="1">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="C41" s="9">
+        <v>62753</v>
+      </c>
+      <c r="D41" s="1">
+        <v>47.940000000000005</v>
+      </c>
+      <c r="E41" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.1277389739589138E-2</v>
+      </c>
+      <c r="F41" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>574.91506849315067</v>
+      </c>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B42" s="1">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="C12" s="9">
-        <v>53668</v>
-      </c>
-      <c r="D12" s="13">
-        <v>96.2</v>
-      </c>
-      <c r="E12" s="3">
-        <f ca="1">YIELD(TODAY(),C12,B12,D12*1.001,100,2,1)</f>
-        <v>4.5071822879370033E-2</v>
-      </c>
-      <c r="F12" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>282.11506849315066</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="14">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="C13" s="9">
-        <v>52618</v>
-      </c>
-      <c r="D13" s="13">
-        <v>83.215000000000003</v>
-      </c>
-      <c r="E13" s="3">
-        <f ca="1">YIELD(TODAY(),C13,B13,D13*1.001,100,2,1)</f>
-        <v>4.5016127490054722E-2</v>
-      </c>
-      <c r="F13" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>247.59452054794519</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="14">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C14" s="9">
-        <v>54764</v>
-      </c>
-      <c r="D14" s="13">
-        <v>96.16</v>
-      </c>
-      <c r="E14" s="3">
-        <f ca="1">YIELD(TODAY(),C14,B14,D14*1.001,100,2,1)</f>
-        <v>4.4931172275459258E-2</v>
-      </c>
-      <c r="F14" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>318.14794520547946</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C15" s="9">
-        <v>53895</v>
-      </c>
-      <c r="D15" s="13">
-        <v>56.195</v>
-      </c>
-      <c r="E15" s="3">
-        <f ca="1">YIELD(TODAY(),C15,B15,D15*1.001,100,2,1)</f>
-        <v>4.4878225723466177E-2</v>
-      </c>
-      <c r="F15" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>289.57808219178082</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="14">
-        <v>8.7500000000000008E-3</v>
-      </c>
-      <c r="C16" s="9">
-        <v>53358</v>
-      </c>
-      <c r="D16" s="13">
-        <v>48.965000000000003</v>
-      </c>
-      <c r="E16" s="3">
-        <f ca="1">YIELD(TODAY(),C16,B16,D16*1.001,100,2,1)</f>
-        <v>4.4828987847900625E-2</v>
-      </c>
-      <c r="F16" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>271.92328767123286</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="14">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="C17" s="9">
-        <v>52207</v>
-      </c>
-      <c r="D17" s="13">
-        <v>100.17</v>
-      </c>
-      <c r="E17" s="3">
-        <f ca="1">YIELD(TODAY(),C17,B17,D17*1.001,100,2,1)</f>
-        <v>4.4790430912101088E-2</v>
-      </c>
-      <c r="F17" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>234.08219178082192</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="14">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="C18" s="9">
-        <v>56179</v>
-      </c>
-      <c r="D18" s="13">
-        <v>87.89</v>
-      </c>
-      <c r="E18" s="3">
-        <f ca="1">YIELD(TODAY(),C18,B18,D18*1.001,100,2,1)</f>
-        <v>4.4778221596533822E-2</v>
-      </c>
-      <c r="F18" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>364.66849315068498</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="14">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C19" s="9">
-        <v>51477</v>
-      </c>
-      <c r="D19" s="13">
-        <v>97.24</v>
-      </c>
-      <c r="E19" s="3">
-        <f ca="1">YIELD(TODAY(),C19,B19,D19*1.001,100,2,1)</f>
-        <v>4.4710171638321021E-2</v>
-      </c>
-      <c r="F19" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>210.08219178082192</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="14">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="C20" s="9">
-        <v>54445</v>
-      </c>
-      <c r="D20" s="13">
-        <v>58.704999999999998</v>
-      </c>
-      <c r="E20" s="3">
-        <f ca="1">YIELD(TODAY(),C20,B20,D20*1.001,100,2,1)</f>
-        <v>4.469391666157118E-2</v>
-      </c>
-      <c r="F20" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>307.66027397260274</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="14">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="C21" s="9">
-        <v>55722</v>
-      </c>
-      <c r="D21" s="13">
-        <v>88.36</v>
-      </c>
-      <c r="E21" s="3">
-        <f ca="1">YIELD(TODAY(),C21,B21,D21*1.001,100,2,1)</f>
-        <v>4.4624049016841354E-2</v>
-      </c>
-      <c r="F21" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>349.64383561643837</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="14">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C22" s="9">
-        <v>51796</v>
-      </c>
-      <c r="D22" s="13">
-        <v>59.97</v>
-      </c>
-      <c r="E22" s="3">
-        <f ca="1">YIELD(TODAY(),C22,B22,D22*1.001,100,2,1)</f>
-        <v>4.4610023067468987E-2</v>
-      </c>
-      <c r="F22" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>220.56986301369864</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="14">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C23" s="9">
-        <v>51020</v>
-      </c>
-      <c r="D23" s="13">
-        <v>97.49</v>
-      </c>
-      <c r="E23" s="3">
-        <f ca="1">YIELD(TODAY(),C23,B23,D23*1.001,100,2,1)</f>
-        <v>4.4598425947820132E-2</v>
-      </c>
-      <c r="F23" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>195.05753424657536</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="14">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C24" s="9">
-        <v>55365</v>
-      </c>
-      <c r="D24" s="13">
-        <v>48.99</v>
-      </c>
-      <c r="E24" s="3">
-        <f ca="1">YIELD(TODAY(),C24,B24,D24*1.001,100,2,1)</f>
-        <v>4.4392065928437967E-2</v>
-      </c>
-      <c r="F24" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>337.90684931506848</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="14">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="C25" s="9">
-        <v>50746</v>
-      </c>
-      <c r="D25" s="13">
-        <v>103.355</v>
-      </c>
-      <c r="E25" s="3">
-        <f ca="1">YIELD(TODAY(),C25,B25,D25*1.001,100,2,1)</f>
-        <v>4.4388660342120731E-2</v>
-      </c>
-      <c r="F25" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>186.04931506849317</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C26" s="9">
-        <v>56096</v>
-      </c>
-      <c r="D26" s="13">
-        <v>51.405000000000001</v>
-      </c>
-      <c r="E26" s="3">
-        <f ca="1">YIELD(TODAY(),C26,B26,D26*1.001,100,2,1)</f>
-        <v>4.4354147761627404E-2</v>
-      </c>
-      <c r="F26" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>361.93972602739723</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="14">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C27" s="9">
-        <v>56955</v>
-      </c>
-      <c r="D27" s="13">
-        <v>96.9</v>
-      </c>
-      <c r="E27" s="3">
-        <f ca="1">YIELD(TODAY(),C27,B27,D27*1.001,100,2,1)</f>
-        <v>4.4251109861600572E-2</v>
-      </c>
-      <c r="F27" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>390.1808219178082</v>
-      </c>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="14">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="C28" s="9">
-        <v>46225</v>
-      </c>
-      <c r="D28" s="13">
-        <v>91.48</v>
-      </c>
-      <c r="E28" s="3">
-        <f ca="1">YIELD(TODAY(),C28,B28,D28*1.001,100,2,1)</f>
-        <v>4.4249168206208993E-2</v>
-      </c>
-      <c r="F28" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>37.413698630136984</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="14">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="C29" s="9">
-        <v>55083</v>
-      </c>
-      <c r="D29" s="13">
-        <v>40.08</v>
-      </c>
-      <c r="E29" s="3">
-        <f ca="1">YIELD(TODAY(),C29,B29,D29*1.001,100,2,1)</f>
-        <v>4.4170573988451652E-2</v>
-      </c>
-      <c r="F29" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>328.63561643835612</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="14">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="C30" s="9">
-        <v>50290</v>
-      </c>
-      <c r="D30" s="13">
-        <v>71.98</v>
-      </c>
-      <c r="E30" s="3">
-        <f ca="1">YIELD(TODAY(),C30,B30,D30*1.001,100,2,1)</f>
-        <v>4.414075969291037E-2</v>
-      </c>
-      <c r="F30" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>171.05753424657533</v>
-      </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="14">
-        <v>1.25E-3</v>
-      </c>
-      <c r="C31" s="9">
-        <v>46052</v>
-      </c>
-      <c r="D31" s="13">
-        <v>89.34</v>
-      </c>
-      <c r="E31" s="3">
-        <f ca="1">YIELD(TODAY(),C31,B31,D31*1.001,100,2,1)</f>
-        <v>4.4136370897471362E-2</v>
-      </c>
-      <c r="F31" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>31.726027397260275</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="14">
-        <v>1.25E-3</v>
-      </c>
-      <c r="C32" s="9">
-        <v>45322</v>
-      </c>
-      <c r="D32" s="13">
-        <v>97.23</v>
-      </c>
-      <c r="E32" s="3">
-        <f ca="1">YIELD(TODAY(),C32,B32,D32*1.001,100,2,1)</f>
-        <v>4.4000052690658299E-2</v>
-      </c>
-      <c r="F32" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>7.7260273972602747</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="C33" s="9">
-        <v>58462</v>
-      </c>
-      <c r="D33" s="13">
-        <v>93.46</v>
-      </c>
-      <c r="E33" s="3">
-        <f ca="1">YIELD(TODAY(),C33,B33,D33*1.001,100,2,1)</f>
-        <v>4.3535203919821616E-2</v>
-      </c>
-      <c r="F33" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>439.72602739726028</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="14">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C34" s="9">
-        <v>46728</v>
-      </c>
-      <c r="D34" s="13">
-        <v>99.5</v>
-      </c>
-      <c r="E34" s="3">
-        <f ca="1">YIELD(TODAY(),C34,B34,D34*1.001,100,2,1)</f>
-        <v>4.3490267210944615E-2</v>
-      </c>
-      <c r="F34" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>53.950684931506856</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="14">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="C35" s="9">
-        <v>57548</v>
-      </c>
-      <c r="D35" s="13">
-        <v>54.09</v>
-      </c>
-      <c r="E35" s="3">
-        <f ca="1">YIELD(TODAY(),C35,B35,D35*1.001,100,2,1)</f>
-        <v>4.3374240201246556E-2</v>
-      </c>
-      <c r="F35" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>409.67671232876711</v>
-      </c>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="14">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C36" s="9">
+      <c r="C42" s="9">
         <v>49741</v>
       </c>
-      <c r="D36" s="13">
-        <v>99.07</v>
-      </c>
-      <c r="E36" s="3">
-        <f ca="1">YIELD(TODAY(),C36,B36,D36*1.001,100,2,1)</f>
-        <v>4.3349734487153027E-2</v>
-      </c>
-      <c r="F36" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>153.00821917808219</v>
-      </c>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="14">
-        <v>6.2500000000000003E-3</v>
-      </c>
-      <c r="C37" s="9">
-        <v>49521</v>
-      </c>
-      <c r="D37" s="13">
-        <v>65.260000000000005</v>
-      </c>
-      <c r="E37" s="3">
-        <f ca="1">YIELD(TODAY(),C37,B37,D37*1.001,100,2,1)</f>
-        <v>4.3265237369956466E-2</v>
-      </c>
-      <c r="F37" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>145.77534246575343</v>
-      </c>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="14">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C38" s="9">
-        <v>46590</v>
-      </c>
-      <c r="D38" s="13">
-        <v>88.454999999999998</v>
-      </c>
-      <c r="E38" s="3">
-        <f ca="1">YIELD(TODAY(),C38,B38,D38*1.001,100,2,1)</f>
-        <v>4.317586990966539E-2</v>
-      </c>
-      <c r="F38" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>49.413698630136984</v>
-      </c>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C39" s="9">
-        <v>47149</v>
-      </c>
-      <c r="D39" s="13">
-        <v>81.08</v>
-      </c>
-      <c r="E39" s="3">
-        <f ca="1">YIELD(TODAY(),C39,B39,D39*1.001,100,2,1)</f>
-        <v>4.2961783137549399E-2</v>
-      </c>
-      <c r="F39" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>67.791780821917797</v>
-      </c>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="14">
-        <v>1.25E-3</v>
-      </c>
-      <c r="C40" s="9">
-        <v>46783</v>
-      </c>
-      <c r="D40" s="13">
-        <v>82.55</v>
-      </c>
-      <c r="E40" s="3">
-        <f ca="1">YIELD(TODAY(),C40,B40,D40*1.001,100,2,1)</f>
-        <v>4.2922135776374361E-2</v>
-      </c>
-      <c r="F40" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>55.758904109589039</v>
-      </c>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="14">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C41" s="9">
-        <v>61566</v>
-      </c>
-      <c r="D41" s="13">
-        <v>84.18</v>
-      </c>
-      <c r="E41" s="3">
-        <f ca="1">YIELD(TODAY(),C41,B41,D41*1.001,100,2,1)</f>
-        <v>4.2917715882242226E-2</v>
-      </c>
-      <c r="F41" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>541.7753424657534</v>
-      </c>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="14">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C42" s="9">
-        <v>60470</v>
-      </c>
-      <c r="D42" s="13">
-        <v>65.185000000000002</v>
+      <c r="D42" s="1">
+        <v>101.19</v>
       </c>
       <c r="E42" s="3">
-        <f ca="1">YIELD(TODAY(),C42,B42,D42*1.001,100,2,1)</f>
-        <v>4.2903624148218023E-2</v>
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.1247328297384742E-2</v>
       </c>
       <c r="F42" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>505.74246575342465</v>
+        <v>147.12328767123287</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="1">
@@ -3799,332 +3938,433 @@
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="14">
-        <v>0.06</v>
+      <c r="B43" s="1">
+        <v>4.1250000000000002E-2</v>
       </c>
       <c r="C43" s="9">
-        <v>47094</v>
-      </c>
-      <c r="D43" s="13">
-        <v>108.19</v>
+        <v>46416</v>
+      </c>
+      <c r="D43" s="1">
+        <v>100</v>
       </c>
       <c r="E43" s="3">
-        <f ca="1">YIELD(TODAY(),C43,B43,D43*1.001,100,2,1)</f>
-        <v>4.287927616412833E-2</v>
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.1235050077177628E-2</v>
       </c>
       <c r="F43" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>65.983561643835628</v>
+        <v>37.808219178082197</v>
       </c>
       <c r="G43" s="7"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="14">
-        <v>0</v>
+      <c r="B44" s="1">
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="C44" s="9">
-        <v>45723</v>
-      </c>
-      <c r="D44" s="13">
-        <v>92.8</v>
+        <v>49521</v>
+      </c>
+      <c r="D44" s="1">
+        <v>68</v>
       </c>
       <c r="E44" s="3">
-        <f ca="1">YIELD(TODAY(),C44,B44,D44*1.001,100,2,1)</f>
-        <v>4.2776224800007735E-2</v>
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.1083666486568457E-2</v>
       </c>
       <c r="F44" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>20.909589041095892</v>
+        <v>139.89041095890411</v>
       </c>
       <c r="G44" s="7"/>
       <c r="I44" s="10"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="14">
-        <v>4.4999999999999998E-2</v>
+      <c r="B45" s="1">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C45" s="9">
-        <v>49194</v>
-      </c>
-      <c r="D45" s="13">
-        <v>101.9</v>
+        <v>46225</v>
+      </c>
+      <c r="D45" s="1">
+        <v>93.57</v>
       </c>
       <c r="E45" s="3">
-        <f ca="1">YIELD(TODAY(),C45,B45,D45*1.001,100,2,1)</f>
-        <v>4.2732091448332434E-2</v>
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.105784271762581E-2</v>
       </c>
       <c r="F45" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>135.02465753424659</v>
+        <v>31.528767123287672</v>
       </c>
       <c r="G45" s="7"/>
       <c r="I45" s="10"/>
       <c r="L45" s="11"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="14">
-        <v>8.7500000000000008E-3</v>
+      <c r="B46" s="1">
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="C46" s="9">
-        <v>48791</v>
-      </c>
-      <c r="D46" s="13">
-        <v>72.41</v>
+        <v>46317</v>
+      </c>
+      <c r="D46" s="1">
+        <v>90.009999999999991</v>
       </c>
       <c r="E46" s="3">
-        <f ca="1">YIELD(TODAY(),C46,B46,D46*1.001,100,2,1)</f>
-        <v>4.2420279861147513E-2</v>
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.0908753032199013E-2</v>
       </c>
       <c r="F46" s="8">
         <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>121.77534246575343</v>
+        <v>34.553424657534251</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="5"/>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="14">
+      <c r="B47" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C47" s="9">
+        <v>49194</v>
+      </c>
+      <c r="D47" s="1">
+        <v>103.86</v>
+      </c>
+      <c r="E47" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.0529158209498393E-2</v>
+      </c>
+      <c r="F47" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>129.13972602739724</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B48" s="1">
+        <v>1.125E-2</v>
+      </c>
+      <c r="C48" s="9">
+        <v>63484</v>
+      </c>
+      <c r="D48" s="1">
+        <v>38.03</v>
+      </c>
+      <c r="E48" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>4.0058175428137242E-2</v>
+      </c>
+      <c r="F48" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>598.94794520547941</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C49" s="9">
+        <v>46911</v>
+      </c>
+      <c r="D49" s="1">
+        <v>102.07</v>
+      </c>
+      <c r="E49" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.9931208184654912E-2</v>
+      </c>
+      <c r="F49" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>54.082191780821915</v>
+      </c>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="1">
+        <v>8.7500000000000008E-3</v>
+      </c>
+      <c r="C50" s="9">
+        <v>48791</v>
+      </c>
+      <c r="D50" s="1">
+        <v>75.309999999999988</v>
+      </c>
+      <c r="E50" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.9807388352557725E-2</v>
+      </c>
+      <c r="F50" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>115.89041095890411</v>
+      </c>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="1">
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C51" s="9">
         <v>48610</v>
       </c>
-      <c r="D47" s="13">
-        <v>92.215000000000003</v>
-      </c>
-      <c r="E47" s="3">
-        <f ca="1">YIELD(TODAY(),C47,B47,D47*1.001,100,2,1)</f>
-        <v>4.2294964364998966E-2</v>
-      </c>
-      <c r="F47" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>115.82465753424658</v>
-      </c>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="14">
+      <c r="D51" s="1">
+        <v>94.679999999999993</v>
+      </c>
+      <c r="E51" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.9478198304881126E-2</v>
+      </c>
+      <c r="F51" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>109.93972602739726</v>
+      </c>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C52" s="9">
+        <v>46728</v>
+      </c>
+      <c r="D52" s="1">
+        <v>101.13</v>
+      </c>
+      <c r="E52" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.9420366008733096E-2</v>
+      </c>
+      <c r="F52" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>48.065753424657537</v>
+      </c>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C53" s="9">
+        <v>46590</v>
+      </c>
+      <c r="D53" s="1">
+        <v>91.02</v>
+      </c>
+      <c r="E53" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.9298834869219999E-2</v>
+      </c>
+      <c r="F53" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>43.528767123287672</v>
+      </c>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C54" s="9">
+        <v>47094</v>
+      </c>
+      <c r="D54" s="1">
+        <v>109.42999999999999</v>
+      </c>
+      <c r="E54" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.9065149568187005E-2</v>
+      </c>
+      <c r="F54" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>60.098630136986301</v>
+      </c>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C55" s="9">
+        <v>47149</v>
+      </c>
+      <c r="D55" s="1">
+        <v>84.259999999999991</v>
+      </c>
+      <c r="E55" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.9018757862153225E-2</v>
+      </c>
+      <c r="F55" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>61.906849315068484</v>
+      </c>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C56" s="9">
+        <v>48244</v>
+      </c>
+      <c r="D56" s="1">
+        <v>79.949999999999989</v>
+      </c>
+      <c r="E56" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.8939776228355157E-2</v>
+      </c>
+      <c r="F56" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>97.906849315068499</v>
+      </c>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="1">
+        <v>1.25E-3</v>
+      </c>
+      <c r="C57" s="9">
+        <v>46783</v>
+      </c>
+      <c r="D57" s="1">
+        <v>85.69</v>
+      </c>
+      <c r="E57" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.8905560297216278E-2</v>
+      </c>
+      <c r="F57" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>49.873972602739727</v>
+      </c>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="1">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="C58" s="9">
+        <v>48372</v>
+      </c>
+      <c r="D58" s="1">
+        <v>102.74</v>
+      </c>
+      <c r="E58" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.8687534713923138E-2</v>
+      </c>
+      <c r="F58" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>102.11506849315069</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C59" s="9">
+        <v>48060</v>
+      </c>
+      <c r="D59" s="1">
+        <v>76.3</v>
+      </c>
+      <c r="E59" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.8560508711458691E-2</v>
+      </c>
+      <c r="F59" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>91.857534246575341</v>
+      </c>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
         <v>1.6250000000000001E-2</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C60" s="9">
         <v>47048</v>
       </c>
-      <c r="D48" s="13">
-        <v>87.56</v>
-      </c>
-      <c r="E48" s="3">
-        <f ca="1">YIELD(TODAY(),C48,B48,D48*1.001,100,2,1)</f>
-        <v>4.2212348568470622E-2</v>
-      </c>
-      <c r="F48" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>64.471232876712335</v>
-      </c>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="14">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C49" s="9">
-        <v>59101</v>
-      </c>
-      <c r="D49" s="13">
-        <v>29.87</v>
-      </c>
-      <c r="E49" s="3">
-        <f ca="1">YIELD(TODAY(),C49,B49,D49*1.001,100,2,1)</f>
-        <v>4.1872412392274391E-2</v>
-      </c>
-      <c r="F49" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>460.73424657534247</v>
-      </c>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="C50" s="9">
-        <v>48244</v>
-      </c>
-      <c r="D50" s="13">
-        <v>77.015000000000001</v>
-      </c>
-      <c r="E50" s="3">
-        <f ca="1">YIELD(TODAY(),C50,B50,D50*1.001,100,2,1)</f>
-        <v>4.186724801309203E-2</v>
-      </c>
-      <c r="F50" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>103.7917808219178</v>
-      </c>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="14">
-        <v>1.6250000000000001E-2</v>
-      </c>
-      <c r="C51" s="9">
-        <v>62753</v>
-      </c>
-      <c r="D51" s="13">
-        <v>47.274999999999999</v>
-      </c>
-      <c r="E51" s="3">
-        <f ca="1">YIELD(TODAY(),C51,B51,D51*1.001,100,2,1)</f>
-        <v>4.1647250203451357E-2</v>
-      </c>
-      <c r="F51" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>580.79999999999995</v>
-      </c>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="14">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="C52" s="9">
-        <v>48060</v>
-      </c>
-      <c r="D52" s="13">
-        <v>73.144999999999996</v>
-      </c>
-      <c r="E52" s="3">
-        <f ca="1">YIELD(TODAY(),C52,B52,D52*1.001,100,2,1)</f>
-        <v>4.1623482308767001E-2</v>
-      </c>
-      <c r="F52" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>97.742465753424668</v>
-      </c>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="14">
+      <c r="D60" s="1">
+        <v>90.24</v>
+      </c>
+      <c r="E60" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.8381117038860532E-2</v>
+      </c>
+      <c r="F60" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>58.586301369863016</v>
+      </c>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="1">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="C61" s="9">
+        <v>47824</v>
+      </c>
+      <c r="D61" s="1">
+        <v>105.58</v>
+      </c>
+      <c r="E61" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.8338355437555587E-2</v>
+      </c>
+      <c r="F61" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>84.098630136986301</v>
+      </c>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="1">
         <v>8.7500000000000008E-3</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C62" s="9">
         <v>47413</v>
       </c>
-      <c r="D53" s="13">
-        <v>81.709999999999994</v>
-      </c>
-      <c r="E53" s="3">
-        <f ca="1">YIELD(TODAY(),C53,B53,D53*1.001,100,2,1)</f>
-        <v>4.1599215381734757E-2</v>
-      </c>
-      <c r="F53" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>76.471232876712335</v>
-      </c>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="14">
+      <c r="D62" s="1">
+        <v>84.61999999999999</v>
+      </c>
+      <c r="E62" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.8214960948407012E-2</v>
+      </c>
+      <c r="F62" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>70.586301369863008</v>
+      </c>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="1">
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C63" s="9">
         <v>47778</v>
       </c>
-      <c r="D54" s="13">
-        <v>76.16</v>
-      </c>
-      <c r="E54" s="3">
-        <f ca="1">YIELD(TODAY(),C54,B54,D54*1.001,100,2,1)</f>
-        <v>4.152698148793068E-2</v>
-      </c>
-      <c r="F54" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>88.471232876712335</v>
-      </c>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="14">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="C55" s="9">
-        <v>47824</v>
-      </c>
-      <c r="D55" s="13">
-        <v>103.81</v>
-      </c>
-      <c r="E55" s="3">
-        <f ca="1">YIELD(TODAY(),C55,B55,D55*1.001,100,2,1)</f>
-        <v>4.1370508217517761E-2</v>
-      </c>
-      <c r="F55" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>89.983561643835628</v>
-      </c>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="14">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="C56" s="9">
-        <v>48372</v>
-      </c>
-      <c r="D56" s="13">
-        <v>100.785</v>
-      </c>
-      <c r="E56" s="3">
-        <f ca="1">YIELD(TODAY(),C56,B56,D56*1.001,100,2,1)</f>
-        <v>4.1310143716150487E-2</v>
-      </c>
-      <c r="F56" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>108</v>
-      </c>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="14">
-        <v>1.125E-2</v>
-      </c>
-      <c r="C57" s="9">
-        <v>63484</v>
-      </c>
-      <c r="D57" s="13">
-        <v>37</v>
-      </c>
-      <c r="E57" s="3">
-        <f ca="1">YIELD(TODAY(),C57,B57,D57*1.001,100,2,1)</f>
-        <v>4.0806795434555086E-2</v>
-      </c>
-      <c r="F57" s="8">
-        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
-        <v>604.83287671232881</v>
-      </c>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D63" s="1">
+        <v>79.36</v>
+      </c>
+      <c r="E63" s="3">
+        <f ca="1">YIELD(TODAY(),Table1[[#This Row],[Maturity]],Table1[[#This Row],[Coupon (%)]],Table1[[#This Row],[Price]],100,2,1)</f>
+        <v>3.8155785591358418E-2</v>
+      </c>
+      <c r="F63" s="8">
+        <f ca="1">YEARFRAC(TODAY(),Table1[[#This Row],[Maturity]],3)*12</f>
+        <v>82.586301369863008</v>
+      </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.2">
@@ -4132,21 +4372,6 @@
     </row>
     <row r="66" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G71" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
